--- a/localization.xlsx
+++ b/localization.xlsx
@@ -619,7 +619,7 @@
       </x:c>
       <x:c r="K10" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Lorsque vous ne parvenez pas à passer à un caractère, passez automatiquement en revue les caractères pour fixer leur ordre.</x:t>
+          <x:t xml:space="preserve">Lorsque vous ne parvenez pas à passer à un personnage, passez automatiquement en revue les personnages pour corriger leur ordre.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -908,7 +908,7 @@
       </x:c>
       <x:c r="K15" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">C'était l'anniversaire de {0} ! Ils ont maintenant {1} ans !</x:t>
+          <x:t xml:space="preserve">C'était l'anniversaire de {0} ! Il a maintenant {1} ans !</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -1478,7 +1478,7 @@
       </x:c>
       <x:c r="K25" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Caractères</x:t>
+          <x:t xml:space="preserve">Personnages</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -1763,7 +1763,7 @@
       </x:c>
       <x:c r="K30" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Clair</x:t>
+          <x:t xml:space="preserve">Effacer</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3359,7 +3359,7 @@
       </x:c>
       <x:c r="K58" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Si le champ de recherche est focalisé et que tu appuies sur 'RETURN', passe au premier personnage de la liste.</x:t>
+          <x:t xml:space="preserve">Si le champ de recherche est focalisé, appuyer sur retour 'RETOUR' connecte au premier personnage de la liste.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3530,7 +3530,7 @@
       </x:c>
       <x:c r="K61" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Impossible de récupérer les caractères depuis l'API.</x:t>
+          <x:t xml:space="preserve">Impossible de récupérer les personnages depuis l'API.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3701,7 +3701,7 @@
       </x:c>
       <x:c r="K64" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Le filtre et la fenêtre de caractères s'effacent automatiquement après 2500 ms</x:t>
+          <x:t xml:space="preserve">Le filtre et la fenêtre de personnages s'effacent automatiquement après 2500 ms</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3758,7 +3758,7 @@
       </x:c>
       <x:c r="K65" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">s'estompent fenêtre supplémentaire</x:t>
+          <x:t xml:space="preserve">Estomper la fenêtre supplémentaire</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3815,7 +3815,7 @@
       </x:c>
       <x:c r="K66" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Filtre</x:t>
+          <x:t xml:space="preserve">Filtrer</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4047,7 +4047,7 @@
       </x:c>
       <x:c r="K70" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Caractères de correction</x:t>
+          <x:t xml:space="preserve">Corriger les personnages</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4104,7 +4104,7 @@
       </x:c>
       <x:c r="K71" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Effectuez une reconnaissance optique de caractères pour tous vos personnages afin de mettre à jour leur ordre actuel pour qu'il corresponde à la sélection de personnages</x:t>
+          <x:t xml:space="preserve">Effectuez une reconnaissance optique de vos personnages afin de mettre à jour leur ordre actuel pour qu'il corresponde à la sélection de personnages</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4218,7 +4218,7 @@
       </x:c>
       <x:c r="K73" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Champ de recherche ciblé</x:t>
+          <x:t xml:space="preserve">Cibler le champ de recherche</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5244,7 +5244,7 @@
       </x:c>
       <x:c r="K91" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Touche à appuyer pour ouvrir le menu de déconnexion. Doit être la même que celle utilisée dans le jeu pour 'Déconnexion' !</x:t>
+          <x:t xml:space="preserve">Touche à appuyer pour ouvrir le menu de déconnexion. Doit-être la même que celle utilisée dans le jeu pour 'Déconnexion' !</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6331,7 +6331,7 @@
       </x:c>
       <x:c r="K110" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Course</x:t>
+          <x:t xml:space="preserve">Race</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6982,7 +6982,7 @@
       </x:c>
       <x:c r="K121" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Touche à presser pour accéder au menu des personnages.</x:t>
+          <x:t xml:space="preserve">Touche à appuyer pour accéder au menu des personnages.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7096,7 +7096,7 @@
       </x:c>
       <x:c r="K123" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher/masquer l'icône de coin</x:t>
+          <x:t xml:space="preserve">Afficher/masquer l'icône d'angle</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7153,7 +7153,7 @@
       </x:c>
       <x:c r="K124" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher l'icône de coin</x:t>
+          <x:t xml:space="preserve">Afficher l'icône d'angle</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -8126,68 +8126,68 @@
       </x:c>
       <x:c r="K141" t="inlineStr">
         <x:is>
+          <x:t xml:space="preserve">Balise</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A142" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B142" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C142" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tags</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tags</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Markierungen</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Etiquetas</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K142" t="inlineStr">
+        <x:is>
           <x:t xml:space="preserve">Balises</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row>
-      <x:c r="A142" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B142" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C142" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tags</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tags</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Markierungen</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Etiquetas</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Balises</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
       <x:c r="A143" s="1" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">Characters</x:t>
@@ -8354,7 +8354,7 @@
       </x:c>
       <x:c r="K145" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Basculer le {0}</x:t>
+          <x:t xml:space="preserve">Basculer {0}</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -8411,7 +8411,7 @@
       </x:c>
       <x:c r="K146" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Commuter tout</x:t>
+          <x:t xml:space="preserve">Basculer tout</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -8696,7 +8696,7 @@
       </x:c>
       <x:c r="K151" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Veuillez régler le jeu sur 'WINDOWED' {0} et l'échelle de l'interface utilisateur sur 'Larger' !</x:t>
+          <x:t xml:space="preserve">Veuillez régler le jeu sur 'FENETRE' {0} et l'échelle de l'interface utilisateur sur 'PLUS GRAND' !</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -9209,7 +9209,7 @@
       </x:c>
       <x:c r="K160" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Utile</x:t>
+          <x:t xml:space="preserve">Utilitaire</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -9380,7 +9380,7 @@
       </x:c>
       <x:c r="K163" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Le jeu est-il en mode fenêtre ?</x:t>
+          <x:t xml:space="preserve">Le jeu est-il en mode fenêtré ?</x:t>
         </x:is>
       </x:c>
     </x:row>

--- a/localization.xlsx
+++ b/localization.xlsx
@@ -505,7 +505,7 @@
       </x:c>
       <x:c r="K8" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ascendant</x:t>
+          <x:t xml:space="preserve">Croissant</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -794,7 +794,7 @@
       </x:c>
       <x:c r="K13" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Les meilleurs résultats sont obtenus avec l'interface réglée sur "plus grand" !</x:t>
+          <x:t xml:space="preserve">Les meilleurs résultats sont obtenus avec l'interface réglée sur "plus grande" !</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -965,7 +965,7 @@
       </x:c>
       <x:c r="K16" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Décalage du fond</x:t>
+          <x:t xml:space="preserve">Décalage en bas</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -2048,7 +2048,7 @@
       </x:c>
       <x:c r="K35" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Profession de l'artisanat</x:t>
+          <x:t xml:space="preserve">Profession d'artisanat</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -2447,7 +2447,7 @@
       </x:c>
       <x:c r="K42" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Descendre</x:t>
+          <x:t xml:space="preserve">Décroissant</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -2561,7 +2561,7 @@
       </x:c>
       <x:c r="K44" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher</x:t>
+          <x:t xml:space="preserve">Affichage</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -2618,7 +2618,7 @@
       </x:c>
       <x:c r="K45" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Permet de double-cliquer sur le personnage dans la liste des personnages pour se connecter à ce personnage.</x:t>
+          <x:t xml:space="preserve">Permet de double-cliquer sur le personnage dans la liste des personnages pour s'y connecter</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -2903,7 +2903,7 @@
       </x:c>
       <x:c r="K50" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Basculer le contrôle de l'édition de la région OCR</x:t>
+          <x:t xml:space="preserve">Ouvrir/fermer la fenêtre d'édition de la région OCR</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3359,7 +3359,7 @@
       </x:c>
       <x:c r="K58" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Si le champ de recherche est focalisé, appuyer sur retour 'RETOUR' connecte au premier personnage de la liste.</x:t>
+          <x:t xml:space="preserve">Si le champ de recherche est focalisé, appuyer sur Entrée connecte au premier personnage de la liste.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3671,7 +3671,7 @@
       </x:c>
       <x:c r="E64" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Fade the filter and character window automatically after 2500 ms</x:t>
+          <x:t xml:space="preserve">Fade the side menus automatically after 2.5 seconds</x:t>
         </x:is>
       </x:c>
       <x:c r="F64" t="inlineStr">
@@ -3728,7 +3728,7 @@
       </x:c>
       <x:c r="E65" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Fade extra window</x:t>
+          <x:t xml:space="preserve">Fade side menu</x:t>
         </x:is>
       </x:c>
       <x:c r="F65" t="inlineStr">
@@ -3738,7 +3738,7 @@
       </x:c>
       <x:c r="G65" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Verblasse extra Fenster</x:t>
+          <x:t xml:space="preserve">Seitenmenü einblenden</x:t>
         </x:is>
       </x:c>
       <x:c r="H65" t="inlineStr">
@@ -3748,7 +3748,7 @@
       </x:c>
       <x:c r="I65" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">desvanecer la ventana extra</x:t>
+          <x:t xml:space="preserve">Desvanecer menú lateral</x:t>
         </x:is>
       </x:c>
       <x:c r="J65" t="inlineStr">
@@ -3758,7 +3758,7 @@
       </x:c>
       <x:c r="K65" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Estomper la fenêtre supplémentaire</x:t>
+          <x:t xml:space="preserve">Fade side menu</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -3990,7 +3990,7 @@
       </x:c>
       <x:c r="K69" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Toggles de filtre</x:t>
+          <x:t xml:space="preserve">Filtres</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4929,7 +4929,7 @@
       </x:c>
       <x:c r="E86" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Level {0}</x:t>
+          <x:t xml:space="preserve">Level</x:t>
         </x:is>
       </x:c>
       <x:c r="F86" t="inlineStr">
@@ -4939,7 +4939,7 @@
       </x:c>
       <x:c r="G86" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Level {0}</x:t>
+          <x:t xml:space="preserve">Level</x:t>
         </x:is>
       </x:c>
       <x:c r="H86" t="inlineStr">
@@ -4949,7 +4949,7 @@
       </x:c>
       <x:c r="I86" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nivel {0}</x:t>
+          <x:t xml:space="preserve">Nivel</x:t>
         </x:is>
       </x:c>
       <x:c r="J86" t="inlineStr">
@@ -4959,7 +4959,7 @@
       </x:c>
       <x:c r="K86" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Niveau {0}</x:t>
+          <x:t xml:space="preserve">Niveau</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -4976,7 +4976,7 @@
       </x:c>
       <x:c r="C87" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">LoginAfterSelect</x:t>
+          <x:t xml:space="preserve">LoginCharacter</x:t>
         </x:is>
       </x:c>
       <x:c r="D87" t="inlineStr">
@@ -4986,7 +4986,7 @@
       </x:c>
       <x:c r="E87" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Enter the game automatically after selecting the character in the character selection</x:t>
+          <x:t xml:space="preserve">Log in character</x:t>
         </x:is>
       </x:c>
       <x:c r="F87" t="inlineStr">
@@ -4996,7 +4996,7 @@
       </x:c>
       <x:c r="G87" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Automatischer Spieleinstieg nach Auswahl des Charakters in der Charakterauswahl</x:t>
+          <x:t xml:space="preserve">login Character</x:t>
         </x:is>
       </x:c>
       <x:c r="H87" t="inlineStr">
@@ -5006,7 +5006,7 @@
       </x:c>
       <x:c r="I87" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Entrar en el juego automáticamente después de seleccionar el personaje en la selección de personajes</x:t>
+          <x:t xml:space="preserve">Carácter de inicio de sesión</x:t>
         </x:is>
       </x:c>
       <x:c r="J87" t="inlineStr">
@@ -5016,7 +5016,7 @@
       </x:c>
       <x:c r="K87" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Entrer dans le jeu automatiquement après avoir sélectionné le personnage dans la sélection des personnages</x:t>
+          <x:t xml:space="preserve">Personnage de connexion</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5033,7 +5033,7 @@
       </x:c>
       <x:c r="C88" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">LoginCharacter</x:t>
+          <x:t xml:space="preserve">LoginWith</x:t>
         </x:is>
       </x:c>
       <x:c r="D88" t="inlineStr">
@@ -5043,7 +5043,7 @@
       </x:c>
       <x:c r="E88" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Log in character</x:t>
+          <x:t xml:space="preserve">Log in with '{0}'!</x:t>
         </x:is>
       </x:c>
       <x:c r="F88" t="inlineStr">
@@ -5053,7 +5053,7 @@
       </x:c>
       <x:c r="G88" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">login Character</x:t>
+          <x:t xml:space="preserve">Anmelden mit '{0}'!</x:t>
         </x:is>
       </x:c>
       <x:c r="H88" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </x:c>
       <x:c r="I88" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Carácter de inicio de sesión</x:t>
+          <x:t xml:space="preserve">¡Entrar con '{0}'!</x:t>
         </x:is>
       </x:c>
       <x:c r="J88" t="inlineStr">
@@ -5073,7 +5073,7 @@
       </x:c>
       <x:c r="K88" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Personnage de connexion</x:t>
+          <x:t xml:space="preserve">Connectez-vous avec '{0}' !</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5090,7 +5090,7 @@
       </x:c>
       <x:c r="C89" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">LoginWith</x:t>
+          <x:t xml:space="preserve">Logout</x:t>
         </x:is>
       </x:c>
       <x:c r="D89" t="inlineStr">
@@ -5100,7 +5100,7 @@
       </x:c>
       <x:c r="E89" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Log in with '{0}'!</x:t>
+          <x:t xml:space="preserve">Logout</x:t>
         </x:is>
       </x:c>
       <x:c r="F89" t="inlineStr">
@@ -5110,7 +5110,7 @@
       </x:c>
       <x:c r="G89" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Anmelden mit '{0}'!</x:t>
+          <x:t xml:space="preserve">Ausloggen</x:t>
         </x:is>
       </x:c>
       <x:c r="H89" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </x:c>
       <x:c r="I89" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">¡Entrar con '{0}'!</x:t>
+          <x:t xml:space="preserve">Cerrar sesión</x:t>
         </x:is>
       </x:c>
       <x:c r="J89" t="inlineStr">
@@ -5130,7 +5130,7 @@
       </x:c>
       <x:c r="K89" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Connectez-vous avec '{0}' !</x:t>
+          <x:t xml:space="preserve">Déconnexion</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5147,7 +5147,7 @@
       </x:c>
       <x:c r="C90" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Logout</x:t>
+          <x:t xml:space="preserve">LogoutDescription</x:t>
         </x:is>
       </x:c>
       <x:c r="D90" t="inlineStr">
@@ -5157,7 +5157,7 @@
       </x:c>
       <x:c r="E90" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Logout</x:t>
+          <x:t xml:space="preserve">Key to Press to open the logout menu. Must be the same as the game keybind for 'Logout'!</x:t>
         </x:is>
       </x:c>
       <x:c r="F90" t="inlineStr">
@@ -5167,7 +5167,7 @@
       </x:c>
       <x:c r="G90" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ausloggen</x:t>
+          <x:t xml:space="preserve">Zu drückende Taste, um das Logout-Menü zu öffnen. Muss mit der Tastenkombination für "Ausloggen" übereinstimmen!</x:t>
         </x:is>
       </x:c>
       <x:c r="H90" t="inlineStr">
@@ -5177,7 +5177,7 @@
       </x:c>
       <x:c r="I90" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Cerrar sesión</x:t>
+          <x:t xml:space="preserve">Tecla a pulsar para abrir el menú de cierre de sesión. Debe ser la misma que la combinación de teclas del juego para 'Cerrar sesión'!</x:t>
         </x:is>
       </x:c>
       <x:c r="J90" t="inlineStr">
@@ -5187,7 +5187,7 @@
       </x:c>
       <x:c r="K90" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Déconnexion</x:t>
+          <x:t xml:space="preserve">Touche à appuyer pour ouvrir le menu de déconnexion. Doit-être la même que celle utilisée dans le jeu pour 'Déconnexion' !</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5204,7 +5204,7 @@
       </x:c>
       <x:c r="C91" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">LogoutDescription</x:t>
+          <x:t xml:space="preserve">Map</x:t>
         </x:is>
       </x:c>
       <x:c r="D91" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </x:c>
       <x:c r="E91" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Key to Press to open the logout menu. Must be the same as the game keybind for 'Logout'!</x:t>
+          <x:t xml:space="preserve">Map</x:t>
         </x:is>
       </x:c>
       <x:c r="F91" t="inlineStr">
@@ -5224,7 +5224,7 @@
       </x:c>
       <x:c r="G91" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Zu drückende Taste, um das Logout-Menü zu öffnen. Muss mit der Tastenkombination für "Ausloggen" übereinstimmen!</x:t>
+          <x:t xml:space="preserve">Karte</x:t>
         </x:is>
       </x:c>
       <x:c r="H91" t="inlineStr">
@@ -5234,7 +5234,7 @@
       </x:c>
       <x:c r="I91" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Tecla a pulsar para abrir el menú de cierre de sesión. Debe ser la misma que la combinación de teclas del juego para 'Cerrar sesión'!</x:t>
+          <x:t xml:space="preserve">Mapa</x:t>
         </x:is>
       </x:c>
       <x:c r="J91" t="inlineStr">
@@ -5244,7 +5244,7 @@
       </x:c>
       <x:c r="K91" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Touche à appuyer pour ouvrir le menu de déconnexion. Doit-être la même que celle utilisée dans le jeu pour 'Déconnexion' !</x:t>
+          <x:t xml:space="preserve">Carte</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5261,7 +5261,7 @@
       </x:c>
       <x:c r="C92" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Map</x:t>
+          <x:t xml:space="preserve">MatchAllFilter</x:t>
         </x:is>
       </x:c>
       <x:c r="D92" t="inlineStr">
@@ -5271,7 +5271,7 @@
       </x:c>
       <x:c r="E92" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Map</x:t>
+          <x:t xml:space="preserve">Match all filter</x:t>
         </x:is>
       </x:c>
       <x:c r="F92" t="inlineStr">
@@ -5281,7 +5281,7 @@
       </x:c>
       <x:c r="G92" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Karte</x:t>
+          <x:t xml:space="preserve">Mit allen Filtern übereinstimmen</x:t>
         </x:is>
       </x:c>
       <x:c r="H92" t="inlineStr">
@@ -5291,7 +5291,7 @@
       </x:c>
       <x:c r="I92" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mapa</x:t>
+          <x:t xml:space="preserve">Coincidir todos los filtros</x:t>
         </x:is>
       </x:c>
       <x:c r="J92" t="inlineStr">
@@ -5301,7 +5301,7 @@
       </x:c>
       <x:c r="K92" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Carte</x:t>
+          <x:t xml:space="preserve">Correspondre à tous les filtres</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5318,7 +5318,7 @@
       </x:c>
       <x:c r="C93" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">MatchAllFilter</x:t>
+          <x:t xml:space="preserve">MatchAnyFilter</x:t>
         </x:is>
       </x:c>
       <x:c r="D93" t="inlineStr">
@@ -5328,7 +5328,7 @@
       </x:c>
       <x:c r="E93" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Match all filter</x:t>
+          <x:t xml:space="preserve">Match any filter</x:t>
         </x:is>
       </x:c>
       <x:c r="F93" t="inlineStr">
@@ -5338,7 +5338,7 @@
       </x:c>
       <x:c r="G93" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mit allen Filtern übereinstimmen</x:t>
+          <x:t xml:space="preserve">Entspricht einem beliebigen Filter</x:t>
         </x:is>
       </x:c>
       <x:c r="H93" t="inlineStr">
@@ -5348,7 +5348,7 @@
       </x:c>
       <x:c r="I93" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Coincidir todos los filtros</x:t>
+          <x:t xml:space="preserve">Coincidir con cualquier filtro</x:t>
         </x:is>
       </x:c>
       <x:c r="J93" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </x:c>
       <x:c r="K93" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Correspondre à tous les filtres</x:t>
+          <x:t xml:space="preserve">Correspond à n'importe quel filtre</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5375,7 +5375,7 @@
       </x:c>
       <x:c r="C94" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">MatchAnyFilter</x:t>
+          <x:t xml:space="preserve">ModuleDescription</x:t>
         </x:is>
       </x:c>
       <x:c r="D94" t="inlineStr">
@@ -5384,96 +5384,39 @@
         </x:is>
       </x:c>
       <x:c r="E94" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Match any filter</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F94" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G94" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Entspricht einem beliebigen Filter</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H94" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I94" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Coincidir con cualquier filtro</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J94" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K94" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Correspond à n'importe quel filtre</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A95" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B95" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C95" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">ModuleDescription</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D95" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E95" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">A tool to easily switch characters even with a lot of them!
 This will require an API-Key with permissions at least for the 'characters' endpoint!</x:t>
         </x:is>
       </x:c>
-      <x:c r="F95" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G95" t="inlineStr">
+      <x:c r="F94" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G94" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">Ein Werkzeug zum einfachen Wechseln von Zeichen, auch wenn es viele davon gibt!
 Dies erfordert einen API-Schlüssel mit Berechtigungen zumindest für den Endpunkt 'characters'!</x:t>
         </x:is>
       </x:c>
-      <x:c r="H95" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I95" t="inlineStr">
+      <x:c r="H94" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I94" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">¡Una herramienta para cambiar fácilmente los caracteres, incluso con un montón de ellos!
 ¡Esto requerirá una API-Key con permisos al menos para el endpoint 'characters'!</x:t>
         </x:is>
       </x:c>
-      <x:c r="J95" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K95" t="inlineStr">
+      <x:c r="J94" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K94" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">Un outil pour changer facilement de personnage même s'il y en a beaucoup !
 Cela nécessitera une clé API avec des permissions, au moins pour le point de terminaison 'characters' !</x:t>
@@ -5481,6 +5424,63 @@
       </x:c>
     </x:row>
     <x:row>
+      <x:c r="A95" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B95" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C95" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Name</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D95" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E95" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Name</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F95" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G95" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Name</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H95" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I95" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Nombre</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J95" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K95" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Nom</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
       <x:c r="A96" s="1" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">Characters</x:t>
@@ -5493,7 +5493,7 @@
       </x:c>
       <x:c r="C96" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Name</x:t>
+          <x:t xml:space="preserve">NoCraftingProfession</x:t>
         </x:is>
       </x:c>
       <x:c r="D96" t="inlineStr">
@@ -5503,7 +5503,7 @@
       </x:c>
       <x:c r="E96" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Name</x:t>
+          <x:t xml:space="preserve">No Crafting Profession</x:t>
         </x:is>
       </x:c>
       <x:c r="F96" t="inlineStr">
@@ -5513,7 +5513,7 @@
       </x:c>
       <x:c r="G96" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Name</x:t>
+          <x:t xml:space="preserve">Kein Handwerksberuf</x:t>
         </x:is>
       </x:c>
       <x:c r="H96" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </x:c>
       <x:c r="I96" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nombre</x:t>
+          <x:t xml:space="preserve">Sin profesión de artesano</x:t>
         </x:is>
       </x:c>
       <x:c r="J96" t="inlineStr">
@@ -5533,7 +5533,7 @@
       </x:c>
       <x:c r="K96" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nom</x:t>
+          <x:t xml:space="preserve">Pas de profession d'artisanat</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5550,7 +5550,7 @@
       </x:c>
       <x:c r="C97" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">NoCraftingProfession</x:t>
+          <x:t xml:space="preserve">OCR_Instructions</x:t>
         </x:is>
       </x:c>
       <x:c r="D97" t="inlineStr">
@@ -5560,7 +5560,7 @@
       </x:c>
       <x:c r="E97" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">No Crafting Profession</x:t>
+          <x:t xml:space="preserve">Move and Size the yellow frame to contain only the character name row in the character selection!</x:t>
         </x:is>
       </x:c>
       <x:c r="F97" t="inlineStr">
@@ -5570,7 +5570,7 @@
       </x:c>
       <x:c r="G97" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Kein Handwerksberuf</x:t>
+          <x:t xml:space="preserve">Verschiebe und vergrößere den gelben Rahmen so, dass er nur die Zeile mit dem Zeichennamen in der Zeichenauswahl enthält!</x:t>
         </x:is>
       </x:c>
       <x:c r="H97" t="inlineStr">
@@ -5580,7 +5580,7 @@
       </x:c>
       <x:c r="I97" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sin profesión de artesano</x:t>
+          <x:t xml:space="preserve">Mover y Dimensionar el marco amarillo para que contenga sólo la fila del nombre del personaje en la selección de personajes!</x:t>
         </x:is>
       </x:c>
       <x:c r="J97" t="inlineStr">
@@ -5590,7 +5590,7 @@
       </x:c>
       <x:c r="K97" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Pas de profession d'artisanat</x:t>
+          <x:t xml:space="preserve">Déplacez et dimensionnez le cadre jaune pour qu'il ne contienne que la ligne du nom du personnage dans la sélection des personnages !</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5607,7 +5607,7 @@
       </x:c>
       <x:c r="C98" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">OCR_Instructions</x:t>
+          <x:t xml:space="preserve">Offset</x:t>
         </x:is>
       </x:c>
       <x:c r="D98" t="inlineStr">
@@ -5617,7 +5617,7 @@
       </x:c>
       <x:c r="E98" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Move and Size the yellow frame to contain only the character name row in the character selection!</x:t>
+          <x:t xml:space="preserve">Offset</x:t>
         </x:is>
       </x:c>
       <x:c r="F98" t="inlineStr">
@@ -5627,7 +5627,7 @@
       </x:c>
       <x:c r="G98" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Verschiebe und vergrößere den gelben Rahmen so, dass er nur die Zeile mit dem Zeichennamen in der Zeichenauswahl enthält!</x:t>
+          <x:t xml:space="preserve">Versatz</x:t>
         </x:is>
       </x:c>
       <x:c r="H98" t="inlineStr">
@@ -5637,7 +5637,7 @@
       </x:c>
       <x:c r="I98" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mover y Dimensionar el marco amarillo para que contenga sólo la fila del nombre del personaje en la selección de personajes!</x:t>
+          <x:t xml:space="preserve">Desplazamiento</x:t>
         </x:is>
       </x:c>
       <x:c r="J98" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </x:c>
       <x:c r="K98" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Déplacez et dimensionnez le cadre jaune pour qu'il ne contienne que la ligne du nom du personnage dans la sélection des personnages !</x:t>
+          <x:t xml:space="preserve">Décalage</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5664,7 +5664,7 @@
       </x:c>
       <x:c r="C99" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Offset</x:t>
+          <x:t xml:space="preserve">Offset_Tooltip</x:t>
         </x:is>
       </x:c>
       <x:c r="D99" t="inlineStr">
@@ -5674,7 +5674,7 @@
       </x:c>
       <x:c r="E99" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Offset</x:t>
+          <x:t xml:space="preserve">The offset numbers correspond to the region of the box below that is captured for OCR. In order: Left, Top, Right, Bottom. Increasing the numbers makes the capture area smaller. Ideally, you want the values set so that you cannot see any yellow box in the preview above.</x:t>
         </x:is>
       </x:c>
       <x:c r="F99" t="inlineStr">
@@ -5684,7 +5684,7 @@
       </x:c>
       <x:c r="G99" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Versatz</x:t>
+          <x:t xml:space="preserve">Die Offset-Zahlen entsprechen dem Bereich des unteren Kastens, der für die OCR erfasst wird. In dieser Reihenfolge: Links, Oben, Rechts, Unten. Durch Erhöhen der Zahlen wird der Erfassungsbereich kleiner. Idealerweise stellen Sie die Werte so ein, dass Sie in der Vorschau oben keinen gelben Kasten sehen.</x:t>
         </x:is>
       </x:c>
       <x:c r="H99" t="inlineStr">
@@ -5694,7 +5694,7 @@
       </x:c>
       <x:c r="I99" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Desplazamiento</x:t>
+          <x:t xml:space="preserve">Los números de desplazamiento corresponden a la región del cuadro inferior que se captura para el OCR. En orden: Izquierda, Arriba, Derecha, Abajo. Aumentar los números hace que el área de captura sea más pequeña. Lo ideal es ajustar los valores de forma que no se vea ningún recuadro amarillo en la vista previa de arriba.</x:t>
         </x:is>
       </x:c>
       <x:c r="J99" t="inlineStr">
@@ -5704,7 +5704,7 @@
       </x:c>
       <x:c r="K99" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Décalage</x:t>
+          <x:t xml:space="preserve">Les numéros de décalage correspondent à la région de la boîte ci-dessous qui est capturée pour l'OCR. Dans l'ordre : Gauche, Haut, Droite, Bas. Plus les chiffres sont élevés, plus la zone de capture est petite. Idéalement, vous devez définir les valeurs de manière à ce que vous ne puissiez pas voir de boîte jaune dans l'aperçu ci-dessous.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5721,7 +5721,7 @@
       </x:c>
       <x:c r="C100" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Offset_Tooltip</x:t>
+          <x:t xml:space="preserve">OnlyMaxCrafting_Description</x:t>
         </x:is>
       </x:c>
       <x:c r="D100" t="inlineStr">
@@ -5731,7 +5731,7 @@
       </x:c>
       <x:c r="E100" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">The offset numbers correspond to the region of the box below that is captured for OCR. In order: Left, Top, Right, Bottom. Increasing the numbers makes the capture area smaller. Ideally, you want the values set so that you cannot see any yellow box in the preview above.</x:t>
+          <x:t xml:space="preserve">Show only crafts that are at a 500 rank (Jeweler &amp; Scribe at 400).</x:t>
         </x:is>
       </x:c>
       <x:c r="F100" t="inlineStr">
@@ -5741,7 +5741,7 @@
       </x:c>
       <x:c r="G100" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Die Offset-Zahlen entsprechen dem Bereich des unteren Kastens, der für die OCR erfasst wird. In dieser Reihenfolge: Links, Oben, Rechts, Unten. Durch Erhöhen der Zahlen wird der Erfassungsbereich kleiner. Idealerweise stellen Sie die Werte so ein, dass Sie in der Vorschau oben keinen gelben Kasten sehen.</x:t>
+          <x:t xml:space="preserve">Zeige nur Handwerksberufe, welche auf einem 500 Rang sind (Juwelier &amp; Schreiber auf 400).</x:t>
         </x:is>
       </x:c>
       <x:c r="H100" t="inlineStr">
@@ -5751,7 +5751,7 @@
       </x:c>
       <x:c r="I100" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Los números de desplazamiento corresponden a la región del cuadro inferior que se captura para el OCR. En orden: Izquierda, Arriba, Derecha, Abajo. Aumentar los números hace que el área de captura sea más pequeña. Lo ideal es ajustar los valores de forma que no se vea ningún recuadro amarillo en la vista previa de arriba.</x:t>
+          <x:t xml:space="preserve">Mostrar sólo los oficios que están en un rango de 500 (joyero y escriba en 400).</x:t>
         </x:is>
       </x:c>
       <x:c r="J100" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </x:c>
       <x:c r="K100" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Les numéros de décalage correspondent à la région de la boîte ci-dessous qui est capturée pour l'OCR. Dans l'ordre : Gauche, Haut, Droite, Bas. Plus les chiffres sont élevés, plus la zone de capture est petite. Idéalement, vous devez définir les valeurs de manière à ce que vous ne puissiez pas voir de boîte jaune dans l'aperçu ci-dessus.</x:t>
+          <x:t xml:space="preserve">N'affiche que les métiers qui sont de rang 500 (bijoutier &amp; scribe à 400).</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5778,7 +5778,7 @@
       </x:c>
       <x:c r="C101" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">OnlyMaxCrafting_Description</x:t>
+          <x:t xml:space="preserve">OnlyMaxCrafting_DisplayName</x:t>
         </x:is>
       </x:c>
       <x:c r="D101" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </x:c>
       <x:c r="E101" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show only crafts that are at a 500 rank (Jeweler &amp; Scribe at 400).</x:t>
+          <x:t xml:space="preserve">Show only maxed out crafting Professions</x:t>
         </x:is>
       </x:c>
       <x:c r="F101" t="inlineStr">
@@ -5798,7 +5798,7 @@
       </x:c>
       <x:c r="G101" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Zeige nur Handwerksberufe, welche auf einem 500 Rang sind (Juwelier &amp; Schreiber auf 400).</x:t>
+          <x:t xml:space="preserve">Zeige nur maximale Handwerksberufe</x:t>
         </x:is>
       </x:c>
       <x:c r="H101" t="inlineStr">
@@ -5808,7 +5808,7 @@
       </x:c>
       <x:c r="I101" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar sólo los oficios que están en un rango de 500 (joyero y escriba en 400).</x:t>
+          <x:t xml:space="preserve">Mostrar sólo las artesanías máximas</x:t>
         </x:is>
       </x:c>
       <x:c r="J101" t="inlineStr">
@@ -5818,7 +5818,7 @@
       </x:c>
       <x:c r="K101" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">N'affiche que les métiers qui sont de rang 500 (bijoutier &amp; scribe à 400).</x:t>
+          <x:t xml:space="preserve">Afficher uniquement les métiers maximum</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5835,7 +5835,7 @@
       </x:c>
       <x:c r="C102" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">OnlyMaxCrafting_DisplayName</x:t>
+          <x:t xml:space="preserve">OpenItem</x:t>
         </x:is>
       </x:c>
       <x:c r="D102" t="inlineStr">
@@ -5845,7 +5845,7 @@
       </x:c>
       <x:c r="E102" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show only maxed out crafting Professions</x:t>
+          <x:t xml:space="preserve">Open {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F102" t="inlineStr">
@@ -5855,7 +5855,7 @@
       </x:c>
       <x:c r="G102" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Zeige nur maximale Handwerksberufe</x:t>
+          <x:t xml:space="preserve">Öffnen {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="H102" t="inlineStr">
@@ -5865,7 +5865,7 @@
       </x:c>
       <x:c r="I102" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar sólo las artesanías máximas</x:t>
+          <x:t xml:space="preserve">Abrir {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="J102" t="inlineStr">
@@ -5875,7 +5875,7 @@
       </x:c>
       <x:c r="K102" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher uniquement les métiers maximum</x:t>
+          <x:t xml:space="preserve">Ouvrir {0}</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5892,7 +5892,7 @@
       </x:c>
       <x:c r="C103" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">OpenItem</x:t>
+          <x:t xml:space="preserve">OpenPortraitFolder</x:t>
         </x:is>
       </x:c>
       <x:c r="D103" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </x:c>
       <x:c r="E103" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Open {0}</x:t>
+          <x:t xml:space="preserve">Open Potrait Folder</x:t>
         </x:is>
       </x:c>
       <x:c r="F103" t="inlineStr">
@@ -5912,7 +5912,7 @@
       </x:c>
       <x:c r="G103" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Öffnen {0}</x:t>
+          <x:t xml:space="preserve">Potrait-Ordner öffnen</x:t>
         </x:is>
       </x:c>
       <x:c r="H103" t="inlineStr">
@@ -5922,7 +5922,7 @@
       </x:c>
       <x:c r="I103" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Abrir {0}</x:t>
+          <x:t xml:space="preserve">Abrir la carpeta Potrait</x:t>
         </x:is>
       </x:c>
       <x:c r="J103" t="inlineStr">
@@ -5932,7 +5932,7 @@
       </x:c>
       <x:c r="K103" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ouvrir {0}</x:t>
+          <x:t xml:space="preserve">Ouvrir le dossier des portraits</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -5949,7 +5949,7 @@
       </x:c>
       <x:c r="C104" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">OpenPortraitFolder</x:t>
+          <x:t xml:space="preserve">Order</x:t>
         </x:is>
       </x:c>
       <x:c r="D104" t="inlineStr">
@@ -5959,7 +5959,7 @@
       </x:c>
       <x:c r="E104" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Open Potrait Folder</x:t>
+          <x:t xml:space="preserve">Order</x:t>
         </x:is>
       </x:c>
       <x:c r="F104" t="inlineStr">
@@ -5969,7 +5969,7 @@
       </x:c>
       <x:c r="G104" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Potrait-Ordner öffnen</x:t>
+          <x:t xml:space="preserve">Reihenfolge</x:t>
         </x:is>
       </x:c>
       <x:c r="H104" t="inlineStr">
@@ -5979,7 +5979,7 @@
       </x:c>
       <x:c r="I104" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Abrir la carpeta Potrait</x:t>
+          <x:t xml:space="preserve">Ordenar</x:t>
         </x:is>
       </x:c>
       <x:c r="J104" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </x:c>
       <x:c r="K104" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ouvrir le dossier du portrait</x:t>
+          <x:t xml:space="preserve">Ordre</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6006,7 +6006,7 @@
       </x:c>
       <x:c r="C105" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Order</x:t>
+          <x:t xml:space="preserve">PotraitFrame</x:t>
         </x:is>
       </x:c>
       <x:c r="D105" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </x:c>
       <x:c r="E105" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Order</x:t>
+          <x:t xml:space="preserve">Potrait Frame</x:t>
         </x:is>
       </x:c>
       <x:c r="F105" t="inlineStr">
@@ -6026,7 +6026,7 @@
       </x:c>
       <x:c r="G105" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Reihenfolge</x:t>
+          <x:t xml:space="preserve">Potrait-Rahmen</x:t>
         </x:is>
       </x:c>
       <x:c r="H105" t="inlineStr">
@@ -6036,7 +6036,7 @@
       </x:c>
       <x:c r="I105" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ordenar</x:t>
+          <x:t xml:space="preserve">Marco del retrato</x:t>
         </x:is>
       </x:c>
       <x:c r="J105" t="inlineStr">
@@ -6046,7 +6046,7 @@
       </x:c>
       <x:c r="K105" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ordonner</x:t>
+          <x:t xml:space="preserve">Portrait</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6063,7 +6063,7 @@
       </x:c>
       <x:c r="C106" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">PotraitFrame</x:t>
+          <x:t xml:space="preserve">PotraitGap</x:t>
         </x:is>
       </x:c>
       <x:c r="D106" t="inlineStr">
@@ -6073,7 +6073,7 @@
       </x:c>
       <x:c r="E106" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Potrait Frame</x:t>
+          <x:t xml:space="preserve">Potrait Gap</x:t>
         </x:is>
       </x:c>
       <x:c r="F106" t="inlineStr">
@@ -6083,7 +6083,7 @@
       </x:c>
       <x:c r="G106" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Potrait-Rahmen</x:t>
+          <x:t xml:space="preserve">Potrait Lücke</x:t>
         </x:is>
       </x:c>
       <x:c r="H106" t="inlineStr">
@@ -6093,7 +6093,7 @@
       </x:c>
       <x:c r="I106" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Marco del retrato</x:t>
+          <x:t xml:space="preserve">Hueco de retrato</x:t>
         </x:is>
       </x:c>
       <x:c r="J106" t="inlineStr">
@@ -6103,7 +6103,7 @@
       </x:c>
       <x:c r="K106" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Cadre du portrait</x:t>
+          <x:t xml:space="preserve">Espace du portrait</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6120,7 +6120,7 @@
       </x:c>
       <x:c r="C107" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">PotraitGap</x:t>
+          <x:t xml:space="preserve">PotraitSize</x:t>
         </x:is>
       </x:c>
       <x:c r="D107" t="inlineStr">
@@ -6130,7 +6130,7 @@
       </x:c>
       <x:c r="E107" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Potrait Gap</x:t>
+          <x:t xml:space="preserve">Potrait Size</x:t>
         </x:is>
       </x:c>
       <x:c r="F107" t="inlineStr">
@@ -6140,7 +6140,7 @@
       </x:c>
       <x:c r="G107" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Potrait Lücke</x:t>
+          <x:t xml:space="preserve">Potrait Größe</x:t>
         </x:is>
       </x:c>
       <x:c r="H107" t="inlineStr">
@@ -6150,7 +6150,7 @@
       </x:c>
       <x:c r="I107" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Hueco de retrato</x:t>
+          <x:t xml:space="preserve">Tamaño del retrato</x:t>
         </x:is>
       </x:c>
       <x:c r="J107" t="inlineStr">
@@ -6160,7 +6160,7 @@
       </x:c>
       <x:c r="K107" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Espace du portrait</x:t>
+          <x:t xml:space="preserve">Taille du portrait</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6177,7 +6177,7 @@
       </x:c>
       <x:c r="C108" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">PotraitSize</x:t>
+          <x:t xml:space="preserve">Profession</x:t>
         </x:is>
       </x:c>
       <x:c r="D108" t="inlineStr">
@@ -6187,7 +6187,7 @@
       </x:c>
       <x:c r="E108" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Potrait Size</x:t>
+          <x:t xml:space="preserve">Profession</x:t>
         </x:is>
       </x:c>
       <x:c r="F108" t="inlineStr">
@@ -6197,7 +6197,7 @@
       </x:c>
       <x:c r="G108" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Potrait Größe</x:t>
+          <x:t xml:space="preserve">Klasse</x:t>
         </x:is>
       </x:c>
       <x:c r="H108" t="inlineStr">
@@ -6207,7 +6207,7 @@
       </x:c>
       <x:c r="I108" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Tamaño del retrato</x:t>
+          <x:t xml:space="preserve">Profesión</x:t>
         </x:is>
       </x:c>
       <x:c r="J108" t="inlineStr">
@@ -6217,7 +6217,7 @@
       </x:c>
       <x:c r="K108" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Taille du portrait</x:t>
+          <x:t xml:space="preserve">Profession</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6234,7 +6234,7 @@
       </x:c>
       <x:c r="C109" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Profession</x:t>
+          <x:t xml:space="preserve">Race</x:t>
         </x:is>
       </x:c>
       <x:c r="D109" t="inlineStr">
@@ -6244,7 +6244,7 @@
       </x:c>
       <x:c r="E109" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Profession</x:t>
+          <x:t xml:space="preserve">Race</x:t>
         </x:is>
       </x:c>
       <x:c r="F109" t="inlineStr">
@@ -6254,7 +6254,7 @@
       </x:c>
       <x:c r="G109" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Beruf</x:t>
+          <x:t xml:space="preserve">Rasse</x:t>
         </x:is>
       </x:c>
       <x:c r="H109" t="inlineStr">
@@ -6264,7 +6264,7 @@
       </x:c>
       <x:c r="I109" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Profesión</x:t>
+          <x:t xml:space="preserve">Carrera</x:t>
         </x:is>
       </x:c>
       <x:c r="J109" t="inlineStr">
@@ -6274,7 +6274,7 @@
       </x:c>
       <x:c r="K109" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Profession</x:t>
+          <x:t xml:space="preserve">Race</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6291,7 +6291,7 @@
       </x:c>
       <x:c r="C110" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Race</x:t>
+          <x:t xml:space="preserve">RefreshAPI</x:t>
         </x:is>
       </x:c>
       <x:c r="D110" t="inlineStr">
@@ -6301,7 +6301,7 @@
       </x:c>
       <x:c r="E110" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Race</x:t>
+          <x:t xml:space="preserve">Refresh API</x:t>
         </x:is>
       </x:c>
       <x:c r="F110" t="inlineStr">
@@ -6311,7 +6311,7 @@
       </x:c>
       <x:c r="G110" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Rasse</x:t>
+          <x:t xml:space="preserve">API aktualisieren</x:t>
         </x:is>
       </x:c>
       <x:c r="H110" t="inlineStr">
@@ -6321,7 +6321,7 @@
       </x:c>
       <x:c r="I110" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Carrera</x:t>
+          <x:t xml:space="preserve">Actualizar API</x:t>
         </x:is>
       </x:c>
       <x:c r="J110" t="inlineStr">
@@ -6331,7 +6331,7 @@
       </x:c>
       <x:c r="K110" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Race</x:t>
+          <x:t xml:space="preserve">Rafraîchir l'API</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6348,7 +6348,7 @@
       </x:c>
       <x:c r="C111" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">RefreshAPI</x:t>
+          <x:t xml:space="preserve">RefreshImages</x:t>
         </x:is>
       </x:c>
       <x:c r="D111" t="inlineStr">
@@ -6358,7 +6358,7 @@
       </x:c>
       <x:c r="E111" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Refresh API</x:t>
+          <x:t xml:space="preserve">Refresh Images</x:t>
         </x:is>
       </x:c>
       <x:c r="F111" t="inlineStr">
@@ -6368,7 +6368,7 @@
       </x:c>
       <x:c r="G111" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">API aktualisieren</x:t>
+          <x:t xml:space="preserve">Bilder aktualisieren</x:t>
         </x:is>
       </x:c>
       <x:c r="H111" t="inlineStr">
@@ -6378,7 +6378,7 @@
       </x:c>
       <x:c r="I111" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Actualizar API</x:t>
+          <x:t xml:space="preserve">Actualizar imágenes</x:t>
         </x:is>
       </x:c>
       <x:c r="J111" t="inlineStr">
@@ -6388,7 +6388,7 @@
       </x:c>
       <x:c r="K111" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Rafraîchir l'API</x:t>
+          <x:t xml:space="preserve">Actualiser les images</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6405,7 +6405,7 @@
       </x:c>
       <x:c r="C112" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">RefreshImages</x:t>
+          <x:t xml:space="preserve">RemoveItem</x:t>
         </x:is>
       </x:c>
       <x:c r="D112" t="inlineStr">
@@ -6415,7 +6415,7 @@
       </x:c>
       <x:c r="E112" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Refresh Images</x:t>
+          <x:t xml:space="preserve">Remove {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F112" t="inlineStr">
@@ -6425,7 +6425,7 @@
       </x:c>
       <x:c r="G112" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Bilder aktualisieren</x:t>
+          <x:t xml:space="preserve">Lösche {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="H112" t="inlineStr">
@@ -6435,7 +6435,7 @@
       </x:c>
       <x:c r="I112" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Actualizar imágenes</x:t>
+          <x:t xml:space="preserve">Eliminar {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="J112" t="inlineStr">
@@ -6445,7 +6445,7 @@
       </x:c>
       <x:c r="K112" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Actualiser les images</x:t>
+          <x:t xml:space="preserve">Supprimer {0}</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6462,7 +6462,7 @@
       </x:c>
       <x:c r="C113" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">RemoveItem</x:t>
+          <x:t xml:space="preserve">RightOffset</x:t>
         </x:is>
       </x:c>
       <x:c r="D113" t="inlineStr">
@@ -6472,7 +6472,7 @@
       </x:c>
       <x:c r="E113" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Remove {0}</x:t>
+          <x:t xml:space="preserve">Right Offset</x:t>
         </x:is>
       </x:c>
       <x:c r="F113" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </x:c>
       <x:c r="G113" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Lösche {0}</x:t>
+          <x:t xml:space="preserve">Rechtsversatz</x:t>
         </x:is>
       </x:c>
       <x:c r="H113" t="inlineStr">
@@ -6492,7 +6492,7 @@
       </x:c>
       <x:c r="I113" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Eliminar {0}</x:t>
+          <x:t xml:space="preserve">Desplazamiento a la derecha</x:t>
         </x:is>
       </x:c>
       <x:c r="J113" t="inlineStr">
@@ -6502,7 +6502,7 @@
       </x:c>
       <x:c r="K113" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Supprimer {0}</x:t>
+          <x:t xml:space="preserve">Décalage à droite</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6519,7 +6519,7 @@
       </x:c>
       <x:c r="C114" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">RightOffset</x:t>
+          <x:t xml:space="preserve">RunStateChange</x:t>
         </x:is>
       </x:c>
       <x:c r="D114" t="inlineStr">
@@ -6529,7 +6529,7 @@
       </x:c>
       <x:c r="E114" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Right Offset</x:t>
+          <x:t xml:space="preserve">{0} {1} !</x:t>
         </x:is>
       </x:c>
       <x:c r="F114" t="inlineStr">
@@ -6539,7 +6539,7 @@
       </x:c>
       <x:c r="G114" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Rechtsversatz</x:t>
+          <x:t xml:space="preserve">{0} {1} !</x:t>
         </x:is>
       </x:c>
       <x:c r="H114" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </x:c>
       <x:c r="I114" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Desplazamiento a la derecha</x:t>
+          <x:t xml:space="preserve">{0} {1} !</x:t>
         </x:is>
       </x:c>
       <x:c r="J114" t="inlineStr">
@@ -6559,7 +6559,7 @@
       </x:c>
       <x:c r="K114" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Décalage à droite</x:t>
+          <x:t xml:space="preserve">{0} {1} !</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6576,7 +6576,7 @@
       </x:c>
       <x:c r="C115" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">RunStateChange</x:t>
+          <x:t xml:space="preserve">Save</x:t>
         </x:is>
       </x:c>
       <x:c r="D115" t="inlineStr">
@@ -6586,7 +6586,7 @@
       </x:c>
       <x:c r="E115" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">{0} {1} !</x:t>
+          <x:t xml:space="preserve">Save</x:t>
         </x:is>
       </x:c>
       <x:c r="F115" t="inlineStr">
@@ -6596,7 +6596,7 @@
       </x:c>
       <x:c r="G115" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">{0} {1} !</x:t>
+          <x:t xml:space="preserve">Speichern</x:t>
         </x:is>
       </x:c>
       <x:c r="H115" t="inlineStr">
@@ -6606,7 +6606,7 @@
       </x:c>
       <x:c r="I115" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">{0} {1} !</x:t>
+          <x:t xml:space="preserve">Guardar</x:t>
         </x:is>
       </x:c>
       <x:c r="J115" t="inlineStr">
@@ -6616,7 +6616,7 @@
       </x:c>
       <x:c r="K115" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">{0} {1} !</x:t>
+          <x:t xml:space="preserve">Enregistrer</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6633,7 +6633,7 @@
       </x:c>
       <x:c r="C116" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Save</x:t>
+          <x:t xml:space="preserve">Scribe</x:t>
         </x:is>
       </x:c>
       <x:c r="D116" t="inlineStr">
@@ -6643,7 +6643,7 @@
       </x:c>
       <x:c r="E116" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Save</x:t>
+          <x:t xml:space="preserve">Scribe</x:t>
         </x:is>
       </x:c>
       <x:c r="F116" t="inlineStr">
@@ -6653,7 +6653,7 @@
       </x:c>
       <x:c r="G116" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Speichern</x:t>
+          <x:t xml:space="preserve">Schreiber</x:t>
         </x:is>
       </x:c>
       <x:c r="H116" t="inlineStr">
@@ -6663,7 +6663,7 @@
       </x:c>
       <x:c r="I116" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Guardar</x:t>
+          <x:t xml:space="preserve">Escriba</x:t>
         </x:is>
       </x:c>
       <x:c r="J116" t="inlineStr">
@@ -6673,7 +6673,7 @@
       </x:c>
       <x:c r="K116" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Enregistrer</x:t>
+          <x:t xml:space="preserve">Illustrateur</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6690,7 +6690,7 @@
       </x:c>
       <x:c r="C117" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Scribe</x:t>
+          <x:t xml:space="preserve">Search</x:t>
         </x:is>
       </x:c>
       <x:c r="D117" t="inlineStr">
@@ -6700,7 +6700,7 @@
       </x:c>
       <x:c r="E117" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Scribe</x:t>
+          <x:t xml:space="preserve">Search ...</x:t>
         </x:is>
       </x:c>
       <x:c r="F117" t="inlineStr">
@@ -6710,7 +6710,7 @@
       </x:c>
       <x:c r="G117" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Schreiber</x:t>
+          <x:t xml:space="preserve">Suchen ...</x:t>
         </x:is>
       </x:c>
       <x:c r="H117" t="inlineStr">
@@ -6720,7 +6720,7 @@
       </x:c>
       <x:c r="I117" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Escriba</x:t>
+          <x:t xml:space="preserve">Buscar ...</x:t>
         </x:is>
       </x:c>
       <x:c r="J117" t="inlineStr">
@@ -6730,7 +6730,7 @@
       </x:c>
       <x:c r="K117" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Illustrateur</x:t>
+          <x:t xml:space="preserve">Rechercher ...</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6747,7 +6747,7 @@
       </x:c>
       <x:c r="C118" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Search</x:t>
+          <x:t xml:space="preserve">SearchGuide</x:t>
         </x:is>
       </x:c>
       <x:c r="D118" t="inlineStr">
@@ -6756,63 +6756,6 @@
         </x:is>
       </x:c>
       <x:c r="E118" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Search ...</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F118" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G118" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Suchen ...</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H118" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I118" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Buscar ...</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J118" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K118" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Rechercher ...</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A119" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B119" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C119" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">SearchGuide</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D119" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E119" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">-c Crafting Profession
 -p Profession/Specialization
@@ -6823,12 +6766,12 @@
 -c Chef; -p Warrior will show all warriors and all chefs</x:t>
         </x:is>
       </x:c>
-      <x:c r="F119" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G119" t="inlineStr">
+      <x:c r="F118" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G118" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">-c Handwerklicher Beruf
 -p Beruf/Spezialisierung
@@ -6839,12 +6782,12 @@
 -c Koch; -p Krieger zeigt alle Krieger und alle Köche</x:t>
         </x:is>
       </x:c>
-      <x:c r="H119" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I119" t="inlineStr">
+      <x:c r="H118" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I118" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">-c Profesión de artesano
 -p Profesión/Especialización
@@ -6855,20 +6798,77 @@
 -c Chef; -p Guerrero mostrará todos los guerreros y todos los chefs</x:t>
         </x:is>
       </x:c>
-      <x:c r="J119" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K119" t="inlineStr">
+      <x:c r="J118" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K118" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">-c Profession d'artisanat
 -p Profession/Spécialisation
 -r Race
 -b Anniversaire
--m MapName
+-m Carte
 -t CustomTag
--c Chef ; -p Warrior affiche tous les guerriers et tous les chefs</x:t>
+-c Chef ; -p Warrior affiche tous les guerriers et tous les cuisiniers</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A119" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B119" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C119" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SelectImage</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D119" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E119" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Choose a picture</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F119" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G119" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Wähle ein Bild aus</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H119" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I119" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Seleccione una imagen</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J119" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K119" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Choisis une image</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6885,7 +6885,7 @@
       </x:c>
       <x:c r="C120" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SelectImage</x:t>
+          <x:t xml:space="preserve">ShortcutToggle_Description</x:t>
         </x:is>
       </x:c>
       <x:c r="D120" t="inlineStr">
@@ -6895,7 +6895,7 @@
       </x:c>
       <x:c r="E120" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Choose a picture</x:t>
+          <x:t xml:space="preserve">Key to Press to toggle the characters menu.</x:t>
         </x:is>
       </x:c>
       <x:c r="F120" t="inlineStr">
@@ -6905,7 +6905,7 @@
       </x:c>
       <x:c r="G120" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Wähle ein Bild aus</x:t>
+          <x:t xml:space="preserve">Taste zum Drücken, um das Charaktermenü aufzurufen.</x:t>
         </x:is>
       </x:c>
       <x:c r="H120" t="inlineStr">
@@ -6915,7 +6915,7 @@
       </x:c>
       <x:c r="I120" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Seleccione una imagen</x:t>
+          <x:t xml:space="preserve">para acceder al menú de caracteres.</x:t>
         </x:is>
       </x:c>
       <x:c r="J120" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </x:c>
       <x:c r="K120" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Choisis une image</x:t>
+          <x:t xml:space="preserve">Touche à appuyer pour accéder au menu des personnages.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6942,7 +6942,7 @@
       </x:c>
       <x:c r="C121" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShortcutToggle_Description</x:t>
+          <x:t xml:space="preserve">ShortcutToggle_DisplayName</x:t>
         </x:is>
       </x:c>
       <x:c r="D121" t="inlineStr">
@@ -6952,7 +6952,7 @@
       </x:c>
       <x:c r="E121" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Key to Press to toggle the characters menu.</x:t>
+          <x:t xml:space="preserve">Toggle Menu</x:t>
         </x:is>
       </x:c>
       <x:c r="F121" t="inlineStr">
@@ -6962,7 +6962,7 @@
       </x:c>
       <x:c r="G121" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Taste zum Drücken, um das Charaktermenü aufzurufen.</x:t>
+          <x:t xml:space="preserve">Menü umschalten</x:t>
         </x:is>
       </x:c>
       <x:c r="H121" t="inlineStr">
@@ -6972,7 +6972,7 @@
       </x:c>
       <x:c r="I121" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">para acceder al menú de caracteres.</x:t>
+          <x:t xml:space="preserve">Menú alternativo</x:t>
         </x:is>
       </x:c>
       <x:c r="J121" t="inlineStr">
@@ -6982,7 +6982,7 @@
       </x:c>
       <x:c r="K121" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Touche à appuyer pour accéder au menu des personnages.</x:t>
+          <x:t xml:space="preserve">Changer de menu</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -6999,7 +6999,7 @@
       </x:c>
       <x:c r="C122" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShortcutToggle_DisplayName</x:t>
+          <x:t xml:space="preserve">ShowCornerIcon_Description</x:t>
         </x:is>
       </x:c>
       <x:c r="D122" t="inlineStr">
@@ -7009,7 +7009,7 @@
       </x:c>
       <x:c r="E122" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Toggle Menu</x:t>
+          <x:t xml:space="preserve">Show/Hide Corner Icon</x:t>
         </x:is>
       </x:c>
       <x:c r="F122" t="inlineStr">
@@ -7019,7 +7019,7 @@
       </x:c>
       <x:c r="G122" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Menü umschalten</x:t>
+          <x:t xml:space="preserve">Eckensymbol ein-/ausblenden</x:t>
         </x:is>
       </x:c>
       <x:c r="H122" t="inlineStr">
@@ -7029,7 +7029,7 @@
       </x:c>
       <x:c r="I122" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Menú alternativo</x:t>
+          <x:t xml:space="preserve">Mostrar/Ocultar el icono de la esquina</x:t>
         </x:is>
       </x:c>
       <x:c r="J122" t="inlineStr">
@@ -7039,7 +7039,7 @@
       </x:c>
       <x:c r="K122" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Changer de menu</x:t>
+          <x:t xml:space="preserve">Afficher/masquer l'icône d'angle</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7056,7 +7056,7 @@
       </x:c>
       <x:c r="C123" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShowCornerIcon_Description</x:t>
+          <x:t xml:space="preserve">ShowCornerIcon_DisplayName</x:t>
         </x:is>
       </x:c>
       <x:c r="D123" t="inlineStr">
@@ -7066,7 +7066,7 @@
       </x:c>
       <x:c r="E123" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show/Hide Corner Icon</x:t>
+          <x:t xml:space="preserve">Show Corner Icon</x:t>
         </x:is>
       </x:c>
       <x:c r="F123" t="inlineStr">
@@ -7076,7 +7076,7 @@
       </x:c>
       <x:c r="G123" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Eckensymbol ein-/ausblenden</x:t>
+          <x:t xml:space="preserve">Eckensymbol einblenden</x:t>
         </x:is>
       </x:c>
       <x:c r="H123" t="inlineStr">
@@ -7086,7 +7086,7 @@
       </x:c>
       <x:c r="I123" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar/Ocultar el icono de la esquina</x:t>
+          <x:t xml:space="preserve">Mostrar el icono de la esquina</x:t>
         </x:is>
       </x:c>
       <x:c r="J123" t="inlineStr">
@@ -7096,7 +7096,7 @@
       </x:c>
       <x:c r="K123" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher/masquer l'icône d'angle</x:t>
+          <x:t xml:space="preserve">Afficher l'icône d'angle</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7113,7 +7113,7 @@
       </x:c>
       <x:c r="C124" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShowCornerIcon_DisplayName</x:t>
+          <x:t xml:space="preserve">ShowCorner_Name</x:t>
         </x:is>
       </x:c>
       <x:c r="D124" t="inlineStr">
@@ -7133,7 +7133,7 @@
       </x:c>
       <x:c r="G124" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Eckensymbol einblenden</x:t>
+          <x:t xml:space="preserve">Eckensymbol anzeigen</x:t>
         </x:is>
       </x:c>
       <x:c r="H124" t="inlineStr">
@@ -7170,7 +7170,7 @@
       </x:c>
       <x:c r="C125" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShowCorner_Name</x:t>
+          <x:t xml:space="preserve">ShowCorner_Tooltip</x:t>
         </x:is>
       </x:c>
       <x:c r="D125" t="inlineStr">
@@ -7180,7 +7180,7 @@
       </x:c>
       <x:c r="E125" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show Corner Icon</x:t>
+          <x:t xml:space="preserve">Show / Hide the Corner Icon of {0}.</x:t>
         </x:is>
       </x:c>
       <x:c r="F125" t="inlineStr">
@@ -7190,7 +7190,7 @@
       </x:c>
       <x:c r="G125" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Eckensymbol anzeigen</x:t>
+          <x:t xml:space="preserve">Das Ecksymbol von {0} ein-/ausblenden.</x:t>
         </x:is>
       </x:c>
       <x:c r="H125" t="inlineStr">
@@ -7200,7 +7200,7 @@
       </x:c>
       <x:c r="I125" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar el icono de la esquina</x:t>
+          <x:t xml:space="preserve">Mostrar / Ocultar el icono de la esquina de {0}.</x:t>
         </x:is>
       </x:c>
       <x:c r="J125" t="inlineStr">
@@ -7210,7 +7210,7 @@
       </x:c>
       <x:c r="K125" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher l'icône d'angle</x:t>
+          <x:t xml:space="preserve">Afficher / masquer l'icône d'angle de {0}.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7227,7 +7227,7 @@
       </x:c>
       <x:c r="C126" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShowCorner_Tooltip</x:t>
+          <x:t xml:space="preserve">ShowHidden_Tooltip</x:t>
         </x:is>
       </x:c>
       <x:c r="D126" t="inlineStr">
@@ -7237,7 +7237,7 @@
       </x:c>
       <x:c r="E126" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show / Hide the Corner Icon of {0}.</x:t>
+          <x:t xml:space="preserve">Show Hidden Characters</x:t>
         </x:is>
       </x:c>
       <x:c r="F126" t="inlineStr">
@@ -7247,7 +7247,7 @@
       </x:c>
       <x:c r="G126" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Das Ecksymbol von {0} ein-/ausblenden.</x:t>
+          <x:t xml:space="preserve">Versteckte Charaktere anzeigen</x:t>
         </x:is>
       </x:c>
       <x:c r="H126" t="inlineStr">
@@ -7257,7 +7257,7 @@
       </x:c>
       <x:c r="I126" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar / Ocultar el icono de la esquina de {0}.</x:t>
+          <x:t xml:space="preserve">Mostrar personajes ocultos</x:t>
         </x:is>
       </x:c>
       <x:c r="J126" t="inlineStr">
@@ -7267,7 +7267,7 @@
       </x:c>
       <x:c r="K126" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher / masquer l'icône d'angle de {0}.</x:t>
+          <x:t xml:space="preserve">Afficher les personnages cachés</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7284,7 +7284,7 @@
       </x:c>
       <x:c r="C127" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShowHidden_Tooltip</x:t>
+          <x:t xml:space="preserve">ShowHide_Tooltip</x:t>
         </x:is>
       </x:c>
       <x:c r="D127" t="inlineStr">
@@ -7294,7 +7294,7 @@
       </x:c>
       <x:c r="E127" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show Hidden Characters</x:t>
+          <x:t xml:space="preserve">Show/Hides {0} in the character list.</x:t>
         </x:is>
       </x:c>
       <x:c r="F127" t="inlineStr">
@@ -7304,7 +7304,7 @@
       </x:c>
       <x:c r="G127" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Versteckte Charaktere anzeigen</x:t>
+          <x:t xml:space="preserve">Zeigt/verbirgt {0} in der Charakterliste.</x:t>
         </x:is>
       </x:c>
       <x:c r="H127" t="inlineStr">
@@ -7314,7 +7314,7 @@
       </x:c>
       <x:c r="I127" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar personajes ocultos</x:t>
+          <x:t xml:space="preserve">Muestra/oculta {0} en la lista de caracteres.</x:t>
         </x:is>
       </x:c>
       <x:c r="J127" t="inlineStr">
@@ -7324,7 +7324,7 @@
       </x:c>
       <x:c r="K127" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher les personnages cachés</x:t>
+          <x:t xml:space="preserve">Affiche/cache {0} dans la liste des personnages.</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7341,7 +7341,7 @@
       </x:c>
       <x:c r="C128" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShowHide_Tooltip</x:t>
+          <x:t xml:space="preserve">ShowInList</x:t>
         </x:is>
       </x:c>
       <x:c r="D128" t="inlineStr">
@@ -7351,7 +7351,7 @@
       </x:c>
       <x:c r="E128" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show/Hides {0} in the character list.</x:t>
+          <x:t xml:space="preserve">Show in List</x:t>
         </x:is>
       </x:c>
       <x:c r="F128" t="inlineStr">
@@ -7361,7 +7361,7 @@
       </x:c>
       <x:c r="G128" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Zeigt/verbirgt {0} in der Charakterliste.</x:t>
+          <x:t xml:space="preserve">In Liste anzeigen</x:t>
         </x:is>
       </x:c>
       <x:c r="H128" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </x:c>
       <x:c r="I128" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Muestra/oculta {0} en la lista de caracteres.</x:t>
+          <x:t xml:space="preserve">Mostrar en lista</x:t>
         </x:is>
       </x:c>
       <x:c r="J128" t="inlineStr">
@@ -7381,7 +7381,7 @@
       </x:c>
       <x:c r="K128" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Affiche/cache {0} dans la liste des personnages.</x:t>
+          <x:t xml:space="preserve">Afficher dans la liste</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7398,7 +7398,7 @@
       </x:c>
       <x:c r="C129" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShowInList</x:t>
+          <x:t xml:space="preserve">ShowItem</x:t>
         </x:is>
       </x:c>
       <x:c r="D129" t="inlineStr">
@@ -7408,7 +7408,7 @@
       </x:c>
       <x:c r="E129" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show in List</x:t>
+          <x:t xml:space="preserve">Show {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F129" t="inlineStr">
@@ -7418,7 +7418,7 @@
       </x:c>
       <x:c r="G129" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">In Liste anzeigen</x:t>
+          <x:t xml:space="preserve">Zeige {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="H129" t="inlineStr">
@@ -7428,7 +7428,7 @@
       </x:c>
       <x:c r="I129" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar en lista</x:t>
+          <x:t xml:space="preserve">Mostrar {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="J129" t="inlineStr">
@@ -7438,7 +7438,7 @@
       </x:c>
       <x:c r="K129" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher dans la liste</x:t>
+          <x:t xml:space="preserve">Afficher {0}</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7455,7 +7455,7 @@
       </x:c>
       <x:c r="C130" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShowItem</x:t>
+          <x:t xml:space="preserve">ShowOnlyMaxCrafting</x:t>
         </x:is>
       </x:c>
       <x:c r="D130" t="inlineStr">
@@ -7465,7 +7465,7 @@
       </x:c>
       <x:c r="E130" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show {0}</x:t>
+          <x:t xml:space="preserve">Show Only Max Crafting</x:t>
         </x:is>
       </x:c>
       <x:c r="F130" t="inlineStr">
@@ -7475,7 +7475,7 @@
       </x:c>
       <x:c r="G130" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Zeige {0}</x:t>
+          <x:t xml:space="preserve">Nur Max Crafting anzeigen</x:t>
         </x:is>
       </x:c>
       <x:c r="H130" t="inlineStr">
@@ -7485,7 +7485,7 @@
       </x:c>
       <x:c r="I130" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar {0}</x:t>
+          <x:t xml:space="preserve">Mostrar sólo Max Crafting</x:t>
         </x:is>
       </x:c>
       <x:c r="J130" t="inlineStr">
@@ -7495,7 +7495,7 @@
       </x:c>
       <x:c r="K130" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher {0}</x:t>
+          <x:t xml:space="preserve">Afficher uniquement l'artisanat maximum</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7512,7 +7512,7 @@
       </x:c>
       <x:c r="C131" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">ShowOnlyMaxCrafting</x:t>
+          <x:t xml:space="preserve">Show_Birthday_Tooltip</x:t>
         </x:is>
       </x:c>
       <x:c r="D131" t="inlineStr">
@@ -7522,7 +7522,7 @@
       </x:c>
       <x:c r="E131" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show Only Max Crafting</x:t>
+          <x:t xml:space="preserve">Show Characters with Birthday Gifts</x:t>
         </x:is>
       </x:c>
       <x:c r="F131" t="inlineStr">
@@ -7532,7 +7532,7 @@
       </x:c>
       <x:c r="G131" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nur Max Crafting anzeigen</x:t>
+          <x:t xml:space="preserve">Charaktere mit Geburtstagsgeschenken anzeigen</x:t>
         </x:is>
       </x:c>
       <x:c r="H131" t="inlineStr">
@@ -7542,7 +7542,7 @@
       </x:c>
       <x:c r="I131" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar sólo Max Crafting</x:t>
+          <x:t xml:space="preserve">Mostrar personajes con regalos de cumpleaños</x:t>
         </x:is>
       </x:c>
       <x:c r="J131" t="inlineStr">
@@ -7552,7 +7552,7 @@
       </x:c>
       <x:c r="K131" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher uniquement l'artisanat maximum</x:t>
+          <x:t xml:space="preserve">Afficher les personnages avec des cadeaux d'anniversaire</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7569,7 +7569,7 @@
       </x:c>
       <x:c r="C132" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show_Birthday_Tooltip</x:t>
+          <x:t xml:space="preserve">SortBy</x:t>
         </x:is>
       </x:c>
       <x:c r="D132" t="inlineStr">
@@ -7579,7 +7579,7 @@
       </x:c>
       <x:c r="E132" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Show Characters with Birthday Gifts</x:t>
+          <x:t xml:space="preserve">Sort By {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F132" t="inlineStr">
@@ -7589,7 +7589,7 @@
       </x:c>
       <x:c r="G132" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Charaktere mit Geburtstagsgeschenken anzeigen</x:t>
+          <x:t xml:space="preserve">Sortieren nach {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="H132" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </x:c>
       <x:c r="I132" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Mostrar personajes con regalos de cumpleaños</x:t>
+          <x:t xml:space="preserve">Ordenar Por {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="J132" t="inlineStr">
@@ -7609,7 +7609,7 @@
       </x:c>
       <x:c r="K132" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Afficher les personnages avec des cadeaux d'anniversaire</x:t>
+          <x:t xml:space="preserve">Trier par {0}</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7626,7 +7626,7 @@
       </x:c>
       <x:c r="C133" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SortBy</x:t>
+          <x:t xml:space="preserve">SortItem</x:t>
         </x:is>
       </x:c>
       <x:c r="D133" t="inlineStr">
@@ -7636,7 +7636,7 @@
       </x:c>
       <x:c r="E133" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sort By {0}</x:t>
+          <x:t xml:space="preserve">Sort {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F133" t="inlineStr">
@@ -7646,7 +7646,7 @@
       </x:c>
       <x:c r="G133" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sortieren nach {0}</x:t>
+          <x:t xml:space="preserve">Sortieren {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="H133" t="inlineStr">
@@ -7656,7 +7656,7 @@
       </x:c>
       <x:c r="I133" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ordenar Por {0}</x:t>
+          <x:t xml:space="preserve">Ordenar {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="J133" t="inlineStr">
@@ -7683,7 +7683,7 @@
       </x:c>
       <x:c r="C134" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SortItem</x:t>
+          <x:t xml:space="preserve">Specialization</x:t>
         </x:is>
       </x:c>
       <x:c r="D134" t="inlineStr">
@@ -7693,7 +7693,7 @@
       </x:c>
       <x:c r="E134" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sort {0}</x:t>
+          <x:t xml:space="preserve">Specialization</x:t>
         </x:is>
       </x:c>
       <x:c r="F134" t="inlineStr">
@@ -7703,7 +7703,7 @@
       </x:c>
       <x:c r="G134" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sortieren {0}</x:t>
+          <x:t xml:space="preserve">Spezialisierung</x:t>
         </x:is>
       </x:c>
       <x:c r="H134" t="inlineStr">
@@ -7713,7 +7713,7 @@
       </x:c>
       <x:c r="I134" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ordenar {0}</x:t>
+          <x:t xml:space="preserve">Especialización</x:t>
         </x:is>
       </x:c>
       <x:c r="J134" t="inlineStr">
@@ -7723,7 +7723,7 @@
       </x:c>
       <x:c r="K134" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Trier par {0}</x:t>
+          <x:t xml:space="preserve">Spécialisation</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7740,7 +7740,7 @@
       </x:c>
       <x:c r="C135" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Specialization</x:t>
+          <x:t xml:space="preserve">SwapDelay_Description</x:t>
         </x:is>
       </x:c>
       <x:c r="D135" t="inlineStr">
@@ -7749,96 +7749,39 @@
         </x:is>
       </x:c>
       <x:c r="E135" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Specialization</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F135" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G135" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Spezialisierung</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H135" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I135" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Especialización</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J135" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K135" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Spécialisation</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A136" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B136" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C136" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">SwapDelay_Description</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D136" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E136" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">Avg. loading time from ingame to character selection.
 To get the current value you will have to swap module tabs once to update the settings page!</x:t>
         </x:is>
       </x:c>
-      <x:c r="F136" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G136" t="inlineStr">
+      <x:c r="F135" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G135" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">Durchschnittliche Ladezeit von Ingame bis zur Charakterauswahl.
 Um den aktuellen Wert zu erhalten, müssen Sie die Modul-Tabs einmal wechseln, um die Einstellungsseite zu aktualisieren!</x:t>
         </x:is>
       </x:c>
-      <x:c r="H136" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I136" t="inlineStr">
+      <x:c r="H135" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I135" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">Tiempo medio de carga desde el inicio del juego hasta la selección del personaje.
 Para obtener el valor actual tendrás que cambiar las pestañas del módulo una vez para actualizar la página de configuración!</x:t>
         </x:is>
       </x:c>
-      <x:c r="J136" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K136" t="inlineStr">
+      <x:c r="J135" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K135" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">Temps de chargement moyen entre le début du jeu et la sélection du personnage.
 Pour obtenir la valeur actuelle, vous devrez changer d'onglet de module une fois pour mettre à jour la page de paramètres !</x:t>
@@ -7846,6 +7789,63 @@
       </x:c>
     </x:row>
     <x:row>
+      <x:c r="A136" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B136" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C136" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">SwapDelay_DisplayName</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D136" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E136" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Loading Delay ({0} ms)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F136" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G136" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ladeverzögerung ({0} ms)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H136" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I136" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Délai de chargement ({0} ms)</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J136" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K136" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Délai de chargement ({0} ms)</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
       <x:c r="A137" s="1" t="inlineStr">
         <x:is>
           <x:t xml:space="preserve">Characters</x:t>
@@ -7858,7 +7858,7 @@
       </x:c>
       <x:c r="C137" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SwapDelay_DisplayName</x:t>
+          <x:t xml:space="preserve">SwapModifier_Description</x:t>
         </x:is>
       </x:c>
       <x:c r="D137" t="inlineStr">
@@ -7868,7 +7868,7 @@
       </x:c>
       <x:c r="E137" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Loading Delay ({0} ms)</x:t>
+          <x:t xml:space="preserve">Only if the Modifier is pressed trigger character swapping. This will prevent accidientally swapping!</x:t>
         </x:is>
       </x:c>
       <x:c r="F137" t="inlineStr">
@@ -7878,7 +7878,7 @@
       </x:c>
       <x:c r="G137" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ladeverzögerung ({0} ms)</x:t>
+          <x:t xml:space="preserve">Nur wenn der Modifikator gedrückt wird, wird das Wechseln des Charakters ausgelöst. Damit wird ein versehentliches Vertauschen verhindert!</x:t>
         </x:is>
       </x:c>
       <x:c r="H137" t="inlineStr">
@@ -7888,7 +7888,7 @@
       </x:c>
       <x:c r="I137" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Délai de chargement ({0} ms)</x:t>
+          <x:t xml:space="preserve">Sólo cuando se pulsa el modificador se desencadena el cambio de carácter. Así se evita el intercambio accidental!</x:t>
         </x:is>
       </x:c>
       <x:c r="J137" t="inlineStr">
@@ -7898,7 +7898,7 @@
       </x:c>
       <x:c r="K137" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Délai de chargement ({0} ms)</x:t>
+          <x:t xml:space="preserve">Ce n'est que lorsque le modificateur est pressé que le changement de personnage est déclenché. Cela permet d'éviter une permutation accidentelle !</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7915,7 +7915,7 @@
       </x:c>
       <x:c r="C138" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SwapModifier_Description</x:t>
+          <x:t xml:space="preserve">SwapModifier_DisplayName</x:t>
         </x:is>
       </x:c>
       <x:c r="D138" t="inlineStr">
@@ -7925,7 +7925,7 @@
       </x:c>
       <x:c r="E138" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Only if the Modifier is pressed trigger character swapping. This will prevent accidientally swapping!</x:t>
+          <x:t xml:space="preserve">Require Modifier to swap</x:t>
         </x:is>
       </x:c>
       <x:c r="F138" t="inlineStr">
@@ -7935,7 +7935,7 @@
       </x:c>
       <x:c r="G138" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Nur wenn der Modifikator gedrückt wird, wird das Wechseln des Charakters ausgelöst. Damit wird ein versehentliches Vertauschen verhindert!</x:t>
+          <x:t xml:space="preserve">Erforderlicher Modifikator zum Wechseln</x:t>
         </x:is>
       </x:c>
       <x:c r="H138" t="inlineStr">
@@ -7945,7 +7945,7 @@
       </x:c>
       <x:c r="I138" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Sólo cuando se pulsa el modificador se desencadena el cambio de carácter. Así se evita el intercambio accidental!</x:t>
+          <x:t xml:space="preserve">Modificador necesario para cambiar</x:t>
         </x:is>
       </x:c>
       <x:c r="J138" t="inlineStr">
@@ -7955,7 +7955,7 @@
       </x:c>
       <x:c r="K138" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Ce n'est que lorsque le modificateur est pressé que le changement de personnage est déclenché. Cela permet d'éviter une permutation accidentelle !</x:t>
+          <x:t xml:space="preserve">Modificateur nécessaire pour changer</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -7972,7 +7972,7 @@
       </x:c>
       <x:c r="C139" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">SwapModifier_DisplayName</x:t>
+          <x:t xml:space="preserve">Switch</x:t>
         </x:is>
       </x:c>
       <x:c r="D139" t="inlineStr">
@@ -7982,7 +7982,7 @@
       </x:c>
       <x:c r="E139" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Require Modifier to swap</x:t>
+          <x:t xml:space="preserve">Switch to {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="F139" t="inlineStr">
@@ -7992,7 +7992,7 @@
       </x:c>
       <x:c r="G139" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Erforderlicher Modifikator zum Wechseln</x:t>
+          <x:t xml:space="preserve">Wechsel zu {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="H139" t="inlineStr">
@@ -8002,7 +8002,7 @@
       </x:c>
       <x:c r="I139" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Modificador necesario para cambiar</x:t>
+          <x:t xml:space="preserve">Cambiar a {0}</x:t>
         </x:is>
       </x:c>
       <x:c r="J139" t="inlineStr">
@@ -8012,7 +8012,7 @@
       </x:c>
       <x:c r="K139" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Modificateur nécessaire pour changer</x:t>
+          <x:t xml:space="preserve">Passer à {0}</x:t>
         </x:is>
       </x:c>
     </x:row>
@@ -8029,7 +8029,7 @@
       </x:c>
       <x:c r="C140" s="1" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Switch</x:t>
+          <x:t xml:space="preserve">Tag</x:t>
         </x:is>
       </x:c>
       <x:c r="D140" t="inlineStr">
@@ -8039,7 +8039,7 @@
       </x:c>
       <x:c r="E140" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Switch to {0}</x:t>
+          <x:t xml:space="preserve">Tag</x:t>
         </x:is>
       </x:c>
       <x:c r="F140" t="inlineStr">
@@ -8049,7 +8049,7 @@
       </x:c>
       <x:c r="G140" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Wechsel zu {0}</x:t>
+          <x:t xml:space="preserve">Tag</x:t>
         </x:is>
       </x:c>
       <x:c r="H140" t="inlineStr">
@@ -8059,7 +8059,7 @@
       </x:c>
       <x:c r="I140" t="inlineStr">
         <x:is>
-          <x:t xml:space="preserve">Cambiar a {0}</x:t>
+          <x:t xml:space="preserve">Etiqueta</x:t>
         </x:is>
       </x:c>
       <x:c r="J140" t="inlineStr">
@@ -8069,1375 +8069,3085 @@
       </x:c>
       <x:c r="K140" t="inlineStr">
         <x:is>
+          <x:t xml:space="preserve">Etiquette personnalisée</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A141" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B141" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C141" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tags</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D141" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E141" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tags</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F141" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G141" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Markierungen</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H141" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I141" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Etiquetas</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J141" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K141" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Etiquettes personnalisées</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A142" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B142" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C142" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tag_Placeholder</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">PvE, WvW, Main, ERP ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">PvE, WvW, Hauptcharacter, ERP ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">PvE, WvW, Principal, ERP ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K142" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">PvE, McM, Principal, ERP ...</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A143" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B143" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C143" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tailor</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D143" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E143" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tailor</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F143" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G143" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Schneider</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H143" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I143" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Sastre</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J143" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K143" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tailleur</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A144" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B144" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C144" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Toggle</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D144" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E144" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Toggle {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F144" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G144" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">{0} umschalten</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H144" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I144" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">{0} de alternancia</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J144" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K144" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Basculer {0}</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A145" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B145" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C145" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">ToggleAll</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D145" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E145" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Toggle All</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F145" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G145" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Alle umschalten</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H145" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I145" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Cambiar todo</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J145" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K145" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Basculer tout</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A146" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B146" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C146" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">TogglePortraitCapture</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D146" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E146" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Toggle Potrait Capture</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F146" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G146" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Potrait Capture umschalten</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H146" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I146" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Activar la captura de retratos</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J146" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K146" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Afficher la capture de portrait</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A147" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B147" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C147" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">TogglePortraitCapture_Tooltip</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D147" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E147" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Toggle the Potrait Capture control</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F147" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G147" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Schalten Sie das Steuerelement "Potrait Capture" um</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H147" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I147" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Alternar el control de Captura de Potrait</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J147" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K147" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ouvrir/fermer la fenêtre de capture de portrait</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A148" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B148" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C148" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">ToggleVisible</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D148" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E148" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Show/Hide hidden Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F148" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G148" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ausgeblendete Charaktere anzeigen/ausblenden</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H148" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I148" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Mostrar/ocultar caracteres ocultos</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J148" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K148" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Afficher/masquer les personnages cachés</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A149" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B149" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C149" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">TopOffset</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D149" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E149" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Top Offset</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F149" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G149" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Oberer Versatz</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H149" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I149" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Desplazamiento superior</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J149" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K149" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Décalage en haut</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A150" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B150" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C150" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">UIScale_Error</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D150" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E150" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Please set the game to 'WINDOWED' {0} and the UI Scale to 'Larger'!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F150" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G150" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Bitte stellen Sie das Spiel auf 'WINDOWED' {0} und die UI Scale auf 'Larger'!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H150" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I150" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Por favor, pon el juego en 'WINDOWED' {0} y la escala de la interfaz de usuario en 'Larger'!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J150" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K150" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Veuillez régler le jeu sur 'Fenêtre' {0} et l'échelle de l'interface utilisateur sur 'Plus grande' !</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A151" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B151" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C151" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">UISizeDisclaimer</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D151" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E151" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">You will have to set the games Interface Size to 'Larger' to get the correct cut outs!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F151" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G151" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Sie müssen die Größe der Benutzeroberfläche auf 'Größer' einstellen, um die richtigen Ausschnitte zu erhalten!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H151" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I151" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tienes que ajustar el tamaño de la superficie de juego a "Más grande" para obtener los recortes correctos!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J151" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K151" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Vous devez régler la taille de l'interface de jeu sur 'Plus grande' pour obtenir les bonnes découpes !</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A152" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B152" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C152" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Unkown</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D152" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E152" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Unkown</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F152" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G152" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Unbekannte</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H152" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I152" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Desconocido</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J152" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K152" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Inconnu</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A153" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B153" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C153" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">UntilBirthday</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D153" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E153" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">until Birthday</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F153" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G153" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">bis Geburtstag</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H153" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I153" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">hasta el cumpleaños</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J153" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K153" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">jusqu'à l'anniversaire</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A154" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B154" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C154" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Update</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D154" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E154" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Update {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F154" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G154" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Aktualisierung {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H154" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I154" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Actualización {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J154" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K154" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Mise à jour {0}</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A155" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B155" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C155" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Updated</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D155" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E155" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Updated {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F155" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G155" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Aktualisiert {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H155" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I155" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Actualizado {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J155" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K155" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Mis à jour {0}</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A156" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B156" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C156" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Updating</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D156" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E156" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Updating {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F156" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G156" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Aktualisierung von {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H156" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I156" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Actualizando {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J156" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K156" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Mise à jour de {0}</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A157" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B157" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C157" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">UseOCR</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D157" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E157" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Use OCR</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F157" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G157" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">OCR verwenden</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H157" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I157" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Utilizar OCR</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J157" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K157" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Utiliser l'OCR</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A158" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B158" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C158" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">UseOCR_Tooltip</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D158" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E158" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Use 'Optical Character Recognition' (OCR) to confirm the character name.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F158" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G158" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Verwenden Sie die "Optische Zeichenerkennung" (OCR), um den Zeichennamen zu bestätigen.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H158" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I158" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Utilice el "Reconocimiento óptico de caracteres" (OCR) para confirmar el nombre del carácter.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J158" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K158" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Utilisez la "reconnaissance optique de caractères" (ROC) pour confirmer le nom du personnage.</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A159" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B159" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C159" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Utility</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D159" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E159" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Utility</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F159" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G159" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Nützliches</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H159" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I159" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Útil</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J159" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K159" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Utilitaire</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A160" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B160" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C160" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Weaponsmith</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D160" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E160" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Weaponsmith</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F160" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G160" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Waffenschmied</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H160" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I160" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Armero</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J160" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K160" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Forgeron d'armes</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A161" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B161" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C161" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">WindowedMode</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D161" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E161" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Windowed Mode</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F161" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G161" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Fenstermodus</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H161" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I161" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Modo Ventana</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J161" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K161" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Mode fenêtré</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A162" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B162" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C162" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">WindowedMode_Tooltip</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D162" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E162" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Is the game set to Window Mode?</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F162" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G162" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ist das Spiel auf Fenstermodus eingestellt?</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H162" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I162" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">¿Está el juego en modo Ventana?</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J162" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K162" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Le jeu est-il en mode fenêtré ?</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A163" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B163" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C163" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Years</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D163" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E163" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Years</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F163" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G163" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Jahre</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H163" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I163" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Años</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J163" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K163" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Années</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A164" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B164" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C164" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">KeyDelay_Description</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D164" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E164" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Adds a delay between key presses. This slows down the character swapping and should only be used if your PC is stressed that much so it isn't able to switch without a delay!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F164" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G164" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Fügt eine Verzögerung zwischen den Tastendrucken hinzu. Dies verlangsamt den Charakterwechsel und sollte nur verwendet werden, wenn Ihr PC so stark belastet ist, dass er nicht ohne Verzögerung umschalten kann!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H164" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I164" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Añade un retardo entre las pulsaciones de las teclas. Esto ralentiza el intercambio de caracteres y sólo se debe utilizar si su PC está tan estresado que no es capaz de cambiar sin un retraso!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J164" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K164" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ajoute un délai entre les pressions de touches. Cela ralentit le changement de personnage et ne devrait être utilisé que si votre PC est ralenti au point de ne pas pouvoir changer sans délai !</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A165" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B165" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C165" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">KeyDelay_DisplayName</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D165" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E165" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Key Delay {0} ms</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F165" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G165" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Tastenverzögerung {0} ms</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H165" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I165" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Retardo de tecla {0} ms</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J165" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K165" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Retard de touche {0} ms</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A166" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B166" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C166" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">ShowStatusWindow_Name</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D166" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E166" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Show Status Popup</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F166" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G166" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Status-Popup anzeigen</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H166" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I166" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Mostrar ventana emergente de estado</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J166" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K166" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Afficher la popup d'état</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A167" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B167" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C167" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">ShowStatusWindow_Description</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D167" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E167" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Displays a popup while any automated actions are performed</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F167" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G167" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Zeigt ein Popup-Fenster an, während automatisierte Aktionen ausgeführt werden</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H167" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I167" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Muestra una ventana emergente mientras se realiza cualquier acción automatizada</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J167" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K167" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Affiche une fenêtre contextuelle pendant l'exécution de toute action automatisée</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A168" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B168" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C168" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">LevelAmount</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D168" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E168" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Level {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F168" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G168" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Level {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H168" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I168" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Nivel {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J168" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K168" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Niveau {0}</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A169" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B169" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C169" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">OnlyIcons</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D169" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E169" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Only Icons</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F169" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G169" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Nur Icons</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H169" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I169" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Sólo iconos</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J169" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K169" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Icône uniquement</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A170" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B170" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C170" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">OnlyText</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D170" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E170" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Only Text</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F170" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G170" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Nur Text</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H170" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I170" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Sólo texto</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J170" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K170" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Seulement le texte</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A171" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B171" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C171" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">TextAndIcon</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D171" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E171" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text and Icons</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F171" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G171" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Text und Icons</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H171" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I171" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Texto e iconos</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J171" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K171" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Texte et icône</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A172" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B172" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C172" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Small</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D172" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E172" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Small</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F172" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G172" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Klein</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H172" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I172" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Pequeño</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J172" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K172" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Petit</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A173" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B173" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C173" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Normal</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D173" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E173" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Normal</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F173" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G173" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Normal</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H173" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I173" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Normal</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J173" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K173" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Normal</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A174" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B174" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C174" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Large</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D174" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E174" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Large</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F174" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G174" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Groß</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H174" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I174" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Grande</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J174" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K174" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Large</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A175" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B175" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C175" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">ShowRandomButton_Name</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D175" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E175" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Show Random Button</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F175" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G175" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Schaltfläche "Zufällig" anzeigen</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H175" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I175" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Mostrar botón aleatorio</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J175" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K175" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Afficher le bouton aléatoire</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A176" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B176" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C176" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">ShowRandomButton_Description</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D176" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E176" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Shows a button next to the search field to switch to a random character of your list</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F176" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G176" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Zeigt eine Schaltfläche neben dem Suchfeld an, um zu einem zufälligen Charakter in Ihrer Liste zu wechseln</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H176" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I176" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Muestra un botón junto al campo de búsqueda para cambiar a un carácter aleatorio de su lista</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J176" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K176" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Affiche un bouton à côté du champ de recherche pour passer à un personnage aléatoire de votre liste</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A177" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B177" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C177" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">RandomButton_Tooltip</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D177" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E177" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Switch to a random character in your current list</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F177" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G177" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Wechseln zu einem zufälligen Charakter in Ihrer aktuellen Liste</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H177" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I177" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Cambiar a un carácter aleatorio de la lista actual</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J177" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K177" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Passer à un personnage aléatoire dans votre liste actuelle</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A178" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B178" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C178" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CharacterSwap_SwitchTo</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D178" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E178" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Switching to {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F178" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G178" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Wechseln zu {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H178" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I178" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Pasar a {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J178" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K178" t="inlineStr">
+        <x:is>
           <x:t xml:space="preserve">Passer à {0}</x:t>
         </x:is>
       </x:c>
     </x:row>
     <x:row>
-      <x:c r="A141" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B141" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C141" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tag</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D141" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E141" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tag</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F141" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G141" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tag</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H141" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I141" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Etiqueta</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J141" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K141" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Balise</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A142" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B142" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C142" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tags</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tags</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Markierungen</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Etiquetas</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K142" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Balises</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A143" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B143" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C143" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tag_Placeholder</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D143" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E143" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">PvE, WvW, Main, ERP ...</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F143" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G143" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">PvE, WvW, Hauptcharacter, ERP ...</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H143" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I143" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">PvE, WvW, Principal, ERP ...</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J143" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K143" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">PvE, WvW, Principal, ERP ...</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A144" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B144" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C144" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tailor</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D144" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E144" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tailor</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F144" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G144" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Schneider</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H144" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I144" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Sastre</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J144" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K144" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tailleur</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A145" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B145" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C145" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Toggle</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D145" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E145" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Toggle {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F145" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G145" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">{0} umschalten</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H145" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I145" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">{0} de alternancia</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J145" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K145" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Basculer {0}</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A146" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B146" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C146" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">ToggleAll</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D146" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E146" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Toggle All</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F146" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G146" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Alle umschalten</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H146" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I146" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Cambiar todo</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J146" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K146" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Basculer tout</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A147" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B147" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C147" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">TogglePortraitCapture</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D147" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E147" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Toggle Potrait Capture</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F147" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G147" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Potrait Capture umschalten</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H147" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I147" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Activar la captura de retratos</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J147" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K147" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Basculer la capture de portrait</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A148" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B148" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C148" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">TogglePortraitCapture_Tooltip</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D148" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E148" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Toggle the Potrait Capture control</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F148" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G148" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Schalten Sie das Steuerelement "Potrait Capture" um</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H148" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I148" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Alternar el control de Captura de Potrait</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J148" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K148" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Activez la commande de capture de portrait</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A149" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B149" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C149" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">ToggleVisible</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D149" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E149" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Show/Hide hidden Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F149" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G149" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Ausgeblendete Charaktere anzeigen/ausblenden</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H149" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I149" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Mostrar/ocultar caracteres ocultos</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J149" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K149" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Afficher/masquer les personnages cachés</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A150" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B150" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C150" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">TopOffset</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D150" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E150" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Top Offset</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F150" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G150" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Oberer Versatz</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H150" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I150" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Desplazamiento superior</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J150" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K150" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Décalage supérieur</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A151" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B151" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C151" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">UIScale_Error</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D151" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E151" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Please set the game to 'WINDOWED' {0} and the UI Scale to 'Larger'!</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F151" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G151" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Bitte stellen Sie das Spiel auf 'WINDOWED' {0} und die UI Scale auf 'Larger'!</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H151" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I151" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Por favor, pon el juego en 'WINDOWED' {0} y la escala de la interfaz de usuario en 'Larger'!</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J151" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K151" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Veuillez régler le jeu sur 'FENETRE' {0} et l'échelle de l'interface utilisateur sur 'PLUS GRAND' !</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A152" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B152" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C152" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">UISizeDisclaimer</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D152" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E152" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">You will have to set the games Interface Size to 'Larger' to get the correct cut outs!</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F152" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G152" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Sie müssen die Größe der Spieloberfläche auf 'Größer' einstellen, um die richtigen Ausschnitte zu erhalten!</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H152" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I152" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Tienes que ajustar el tamaño de la superficie de juego a "Más grande" para obtener los recortes correctos!</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J152" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K152" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Vous devez régler la taille de l'interface de jeu sur 'Plus grand' pour obtenir les bonnes découpes !</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A153" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B153" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C153" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Unkown</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D153" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E153" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Unkown</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F153" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G153" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Unbekannte</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H153" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I153" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Desconocido</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J153" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K153" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Inconnu</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A154" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B154" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C154" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">UntilBirthday</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D154" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E154" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">until Birthday</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F154" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G154" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">bis Geburtstag</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H154" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I154" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">hasta el cumpleaños</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J154" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K154" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">jusqu'à l'anniversaire</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A155" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B155" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C155" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Update</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D155" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E155" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Update {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F155" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G155" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Aktualisierung {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H155" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I155" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Actualización {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J155" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K155" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Mise à jour {0}</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A156" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B156" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C156" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Updated</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D156" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E156" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Updated {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F156" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G156" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Aktualisiert {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H156" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I156" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Actualizado {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J156" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K156" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Mis à jour {0}</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A157" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B157" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C157" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Updating</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D157" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E157" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Updating {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F157" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G157" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Aktualisierung von {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H157" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I157" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Actualizando {0}</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J157" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K157" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Mise à jour de {0}</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A158" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B158" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C158" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">UseOCR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D158" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E158" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Use OCR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F158" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G158" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">OCR verwenden</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H158" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I158" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Utilizar OCR</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J158" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K158" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Utiliser l'OCR</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A159" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B159" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C159" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">UseOCR_Tooltip</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D159" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E159" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Use 'Optical Character Recognition' (OCR) to confirm the character name.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F159" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G159" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Verwenden Sie die "Optische Zeichenerkennung" (OCR), um den Zeichennamen zu bestätigen.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H159" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I159" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Utilice el "Reconocimiento óptico de caracteres" (OCR) para confirmar el nombre del carácter.</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J159" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K159" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Utilisez la "reconnaissance optique de caractères" (ROC) pour confirmer le nom du caractère.</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A160" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B160" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C160" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Utility</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D160" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E160" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Utility</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F160" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G160" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Nützliches</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H160" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I160" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Útil</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J160" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K160" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Utilitaire</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A161" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B161" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C161" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Weaponsmith</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D161" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E161" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Weaponsmith</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F161" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G161" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Waffenschmied</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H161" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I161" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Armero</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J161" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K161" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Forgeron d'armes</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A162" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B162" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C162" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">WindowedMode</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D162" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E162" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Windowed Mode</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F162" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G162" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Fenstermodus</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H162" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I162" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Modo Ventana</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J162" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K162" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Mode fenêtré</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A163" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B163" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C163" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">WindowedMode_Tooltip</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D163" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E163" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Is the game set to Window Mode?</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F163" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G163" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Ist das Spiel auf Fenstermodus eingestellt?</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H163" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I163" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">¿Está el juego en modo Ventana?</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J163" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K163" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Le jeu est-il en mode fenêtré ?</x:t>
-        </x:is>
-      </x:c>
-    </x:row>
-    <x:row>
-      <x:c r="A164" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Characters</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="B164" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Strings\common</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="C164" s="1" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Years</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="D164" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="E164" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Years</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="F164" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="G164" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Jahre</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="H164" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="I164" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Años</x:t>
-        </x:is>
-      </x:c>
-      <x:c r="J164" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve"/>
-        </x:is>
-      </x:c>
-      <x:c r="K164" t="inlineStr">
-        <x:is>
-          <x:t xml:space="preserve">Années</x:t>
+      <x:c r="A179" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B179" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C179" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CharacterSwap_FailedSwap</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D179" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E179" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Failed to swap to {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F179" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G179" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Wechsel zu {0} fehlgeschlagen</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H179" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I179" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Error al cambiar a {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J179" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K179" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Échec de la bascule vers {0}</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A180" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B180" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C180" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CharacterSwap_Logout</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D180" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E180" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Logging out ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F180" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G180" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Abmelden ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H180" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I180" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Cerrando sesión ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J180" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K180" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Déconnexion ...</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A181" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B181" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C181" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CharacterSwap_MoveTo</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D181" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E181" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Try to move to {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F181" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G181" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Versuch, nach {0} zu wechseln</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H181" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I181" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Intentar pasar a {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J181" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K181" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Essayer de se déplacer vers {0}</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A182" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B182" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C182" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CharacterSwap_LoginTo</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D182" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E182" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Login to {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F182" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G182" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Anmeldung bei {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H182" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I182" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Iniciar sesión en {0}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J182" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K182" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Connexion à {0}</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A183" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B183" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C183" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CharacterSwap_Right</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D183" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E183" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Check right ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F183" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G183" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Nach rechts schauen ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H183" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I183" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Comprobar derecha ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J183" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K183" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Vérifier à droite ...</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A184" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B184" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C184" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CharacterSwap_Left</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D184" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E184" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Check left ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F184" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G184" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Links prüfen ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H184" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I184" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Comprobar izquierda ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J184" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K184" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Vérifier à gauche ...</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A185" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B185" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C185" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CharacterSwap_MoveFirst</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D185" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E185" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Move to first character ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F185" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G185" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Wechseln zum ersten Charakter ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H185" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I185" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Mover a primer carácter ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J185" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K185" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Déplacement vers le premier personnage ...</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A186" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B186" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C186" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Status_Done</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D186" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E186" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Done!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F186" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G186" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Erledigt!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H186" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I186" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Listo!</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J186" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K186" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Fini !</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A187" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B187" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C187" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">FixCharacter_Start</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D187" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E187" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Fixing characters ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F187" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G187" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Charaktere fixen ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H187" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I187" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Fijar caracteres ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J187" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K187" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Correction des personnages ...</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A188" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B188" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C188" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">FixCharacter_MoveNext</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D188" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E188" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Move to next character ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F188" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G188" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Gehe zum nächsten Charakter ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H188" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I188" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Mover al siguiente carácter ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J188" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K188" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Aller au personnage suivant ...</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A189" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B189" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C189" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">FixCharacter_FetchName</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D189" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E189" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Fetch the character name ...{0}{1}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F189" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G189" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Holen Sie den Charakternamen ...{0}{1}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H189" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I189" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Obtener el nombre del personaje ...{0}{1}</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J189" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K189" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Récupérer le nom du personnage ...{0}{1}</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A190" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B190" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C190" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">FixCharacter_NoChange</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D190" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E190" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Character name did not change {0}/2 ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F190" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G190" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Charaktername hat sich nicht geändert {0}/2 ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H190" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I190" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Nombre de carácter no cambió {0}/2 ...</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J190" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K190" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Le nom du personnage n'a pas changé {0}/2 ...</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A191" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B191" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C191" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CloseWindowOnSwap_DisplayName</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D191" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E191" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Close Window on Character Swap</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F191" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G191" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Fenster bei Charakterwechsel schließen</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H191" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I191" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Cerrar ventana al cambiar de personaje</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J191" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K191" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Fermer la fenêtre lors du changement de personnage</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A192" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B192" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C192" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">CloseWindowOnSwap_Description</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D192" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E192" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Closes the module window when logging in to a character.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F192" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G192" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Schließt das Modulfenster, wenn man sich bei einem Zeichen einloggt.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H192" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I192" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Cierra la ventana del módulo al entrar en un personaje.</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J192" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K192" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ferme la fenêtre du module lors de la connexion à un personnage.</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A193" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B193" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C193" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">FilterDiacriticsInsensitive_DisplayName</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D193" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E193" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ignore diacritics</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F193" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G193" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Diakritische Zeichen ignorieren</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H193" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I193" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ignorar diacríticos</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J193" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K193" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ignorer les diacritiques</x:t>
+        </x:is>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c r="A194" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Characters</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="B194" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Strings\common</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="C194" s="1" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">FilterDiacriticsInsensitive_Description</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="D194" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="E194" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ignore any type of diacritics</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="F194" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="G194" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ignoriert alle Arten von diakritischen Zeichen</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="H194" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="I194" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ignora cualquier tipo de diacríticos</x:t>
+        </x:is>
+      </x:c>
+      <x:c r="J194" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve"/>
+        </x:is>
+      </x:c>
+      <x:c r="K194" t="inlineStr">
+        <x:is>
+          <x:t xml:space="preserve">Ignore tout type de diacritiques</x:t>
         </x:is>
       </x:c>
     </x:row>
